--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -461,7 +461,11 @@
           <t>**東京都健康安全研究センター** &lt;br&gt; [市販キノコ類からのリステリア属菌の検出状況]() &lt;br&gt; （東京都微生物検査情報 第45巻第5号）</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -525,7 +529,11 @@
           <t>**埼玉県** &lt;br&gt; [埼玉県内の市販食肉における食中毒細菌の汚染実態調査](https://agriknowledge.affrc.go.jp/RN/2030945004.pdf)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -606,7 +614,11 @@
           <t>**東京都健康安全研究センター** &lt;br&gt; [東京都内の畜水産食品における食中毒菌検出状況](https://idsc.tmiph.metro.tokyo.lg.jp/assets/epid/2019/tbkj4001.pdf) &lt;br&gt; （東京都微生物検査情報 第40巻第1号）</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -823,7 +835,11 @@
           <t>**福岡県保健環境研究所** &lt;br&gt; [平成24年度食品の食中毒菌汚染実態調査](https://www.fihes.pref.fukuoka.jp/nenpoh/np40/pdf/np40report3.pdf) &lt;br&gt; （福岡県保健環境研究所年報第40号, 116-118, 2013）</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -836,7 +852,11 @@
           <t>**神奈川県衛生研究所** &lt;br&gt; [Prevalence and Characteristics of _Salmonella_ and _Campylobacter_ in Retail Poultry Meat in Japan](https://www.jstage.jst.go.jp/article/yoken/70/3/70_JJID.2016.164/_pdf/-char/en)</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -849,7 +869,11 @@
           <t>**島根県保健環境科学研究所** &lt;br&gt; [ウズラ卵が原因食品と推定された _Salmonella enterica_ serovar 4，［5］，12：i：一による食中毒の発生とウズラ卵のサルモネラ汚染状況調査](https://mol.medicalonline.jp/library/journal/download?GoodsID=ee5jsofm/2016/003303/012&amp;name=0160-0165j&amp;UserID=133.50.190.185&amp;base=jamas_pdf)</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1049,7 +1073,11 @@
           <t>**福岡県保健環境研究所** &lt;br&gt; [平成22年度食品の食中毒菌汚染実態調査](https://www.fihes.pref.fukuoka.jp/nenpoh/np38/pdf/np38report1.pdf) &lt;br&gt; （福岡県保健環境研究所年報第38号, 66-67, 2011）</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1096,7 +1124,11 @@
           <t>**国立医薬品食品衛生研究所**&lt;br&gt;[_Campylobacter_ contamination in retail poultry meats and by-products in Japan: A literature survey](https://www.sciencedirect.com/science/article/pii/S0956713508002247)</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1194,7 +1226,11 @@
           <t>**帯広畜産大学** &lt;br&gt; [Isolation and characterization of _Listeria monocytogenes_ from commercial asazuke (Japanese light pickles)](https://www.sciencedirect.com/science/article/pii/S0168160510001686?via%3Dihub)</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1207,7 +1243,11 @@
           <t>**日本獣医生命科学大学** &lt;br&gt; [Isolation of _Listeria monocytogenes_ from the Skin of Slaughtered Beef Cattle](https://agriknowledge.affrc.go.jp/RN/2030760055.pdf)</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1322,7 +1362,11 @@
           <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf)</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1352,19 +1396,35 @@
           <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93）</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>**東京都健康安全研究センター** &lt;br&gt; インターネット販売食品の衛生学的実態調査 &lt;br&gt;（食品衛生研究, 65-70, 56(1), 2006）&lt;br&gt; 国立国会図書館に所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R100000002-I000000011637-i5462925)）</t>

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junpei/Library/CloudStorage/Dropbox/ファミリー ルーム/hosoe/Github/food_micro_data_risk/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047E4BED-9997-784B-91F2-23D0013A2699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF128135-D160-9640-B2A3-4FA501B80404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,6 @@
     <t>整理状況</t>
   </si>
   <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>nan</t>
   </si>
   <si>
@@ -320,6 +317,10 @@
   </si>
   <si>
     <t>**東京都健康安全研究センター** &lt;br&gt; [市販キノコ類からのリステリア属菌の検出状況](https://idsc.tmiph.metro.tokyo.lg.jp/assets/epid/2024/tbkj4505.pdf) &lt;br&gt; （東京都微生物検査情報 第45巻第5号）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2021-2023</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -694,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -716,640 +717,640 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
         <v>48</v>
       </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
         <v>50</v>
       </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
         <v>57</v>
       </c>
-      <c r="B33" t="s">
-        <v>58</v>
-      </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
         <v>64</v>
       </c>
-      <c r="B39" t="s">
-        <v>65</v>
-      </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" t="s">
         <v>69</v>
       </c>
-      <c r="B43" t="s">
-        <v>70</v>
-      </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
         <v>71</v>
       </c>
-      <c r="B44" t="s">
-        <v>72</v>
-      </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" t="s">
         <v>73</v>
       </c>
-      <c r="B45" t="s">
-        <v>74</v>
-      </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" t="s">
         <v>75</v>
       </c>
-      <c r="B46" t="s">
-        <v>76</v>
-      </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" t="s">
         <v>79</v>
       </c>
-      <c r="B49" t="s">
-        <v>80</v>
-      </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" t="s">
         <v>81</v>
       </c>
-      <c r="B50" t="s">
-        <v>82</v>
-      </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
         <v>83</v>
       </c>
-      <c r="B51" t="s">
-        <v>84</v>
-      </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" t="s">
         <v>85</v>
       </c>
-      <c r="B52" t="s">
-        <v>86</v>
-      </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" t="s">
         <v>87</v>
       </c>
-      <c r="B53" t="s">
-        <v>88</v>
-      </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
         <v>89</v>
       </c>
-      <c r="B54" t="s">
-        <v>90</v>
-      </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" t="s">
         <v>91</v>
       </c>
-      <c r="B55" t="s">
-        <v>92</v>
-      </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" t="s">
         <v>93</v>
       </c>
-      <c r="B56" t="s">
-        <v>94</v>
-      </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" t="s">
         <v>95</v>
       </c>
-      <c r="B57" t="s">
-        <v>96</v>
-      </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [市販キノコ類からのリステリア属菌の検出状況]() &lt;br&gt; （東京都微生物検査情報 第45巻第5号）</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [市販キノコ類からのリステリア属菌の検出状況](https://idsc.tmiph.metro.tokyo.lg.jp/assets/epid/2024/tbkj4505.pdf) &lt;br&gt; （東京都微生物検査情報 第45巻第5号）</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>済</t>
         </is>
       </c>
     </row>

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[The Occurrence of Listeria monocytogenes in Imported Ready-to-Eat Foods in Japan](https://www.jstage.jst.go.jp/article/jvms/74/3/74_11-0262/_pdf/-char/en)</t>
+          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[The Occurrence of Listeria monocytogenes in Imported Ready-to-Eat Foods in Japan](https://www.jstage.jst.go.jp/article/jvms/74/3/74_11-0262/_pdf/-char/en) &lt;br&gt; (Journal of Veterinary Medical Science, 2012, Volume 74, Issue 3, Pages 373-375)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1269,29 +1269,29 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2004-2007</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>**日本獣医生命科学大学** &lt;br&gt; [Sequence-Based Characterization of _Listeria monocytogenes_ Strains Isolated from Domestic Retail Meat in the Tokyo Metropolitan Area of Japan](https://www.jstage.jst.go.jp/article/yoken/71/5/71_JJID.2017.582/_pdf/-char/en)</t>
+          <t>**神戸大学** &lt;br&gt; [市販ミンチ肉 における黄色ブドウ球菌汚染調査と分離株の性状](https://www.jstage.jst.go.jp/article/jsfm1994/23/4/23_4_217/_pdf/-char/ja)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2002-2004</t>
+          <t>2004-2007</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [漬け物製造施設における _Listeria monocytogenes_ の汚染実態について](https://www.pref.saitama.lg.jp/documents/231581/no39h17-2_p94~191.pdf) &lt;br&gt;（埼玉県衛生研究所年報 2005 Vol.39 p151-153）</t>
+          <t>**日本獣医生命科学大学** &lt;br&gt; [Sequence-Based Characterization of _Listeria monocytogenes_ Strains Isolated from Domestic Retail Meat in the Tokyo Metropolitan Area of Japan](https://www.jstage.jst.go.jp/article/yoken/71/5/71_JJID.2017.582/_pdf/-char/en)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1303,12 +1303,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2002-2003</t>
+          <t>2002-2004</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>**東京海洋大学** &lt;br&gt; [Incidence of _Listeria monocytogenes_ in Raw Seafood Products in Japanese Retail Stores](https://www.sciencedirect.com/science/article/pii/S0362028X22009371/pdf?md5=a3083f06f33e1de915e2df49fbcf05af&amp;pid=1-s2.0-S0362028X22009371-main.pdf)</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [漬け物製造施設における _Listeria monocytogenes_ の汚染実態について](https://www.pref.saitama.lg.jp/documents/231581/no39h17-2_p94~191.pdf) &lt;br&gt;（埼玉県衛生研究所年報 2005 Vol.39 p151-153）</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1320,12 +1320,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2001-2002</t>
+          <t>2002-2003</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立国会図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
+          <t>**東京海洋大学** &lt;br&gt; [Incidence of _Listeria monocytogenes_ in Raw Seafood Products in Japanese Retail Stores](https://www.sciencedirect.com/science/article/pii/S0362028X22009371/pdf?md5=a3083f06f33e1de915e2df49fbcf05af&amp;pid=1-s2.0-S0362028X22009371-main.pdf)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1337,12 +1337,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2001-2002</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立国会図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1354,12 +1354,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2000-2015</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [食品からの _Listeria monocytogenes_ 検出法および定量法の比較](https://www.jstage.jst.go.jp/article/jsfm/33/3/33_155/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌、2016）</t>
+          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1371,12 +1371,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2000-2012</t>
+          <t>2000-2015</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [Prevalence and contamination levels of _Listeria monocytogenes_ in ready-to-eat foods in Tokyo, Japan](https://www.jstage.jst.go.jp/article/jvms/78/7/78_15-0708/_pdf/-char/ja) &lt;br&gt; (Jarnal o Veterinary Medical Science (JVMS), 2016)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [食品からの _Listeria monocytogenes_ 検出法および定量法の比較](https://www.jstage.jst.go.jp/article/jsfm/33/3/33_155/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌、2016）</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1388,29 +1388,29 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2000-2002</t>
+          <t>2000-2012</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [Prevalence and contamination levels of _Listeria monocytogenes_ in ready-to-eat foods in Tokyo, Japan](https://www.jstage.jst.go.jp/article/jvms/78/7/78_15-0708/_pdf/-char/ja) &lt;br&gt; (Jarnal o Veterinary Medical Science (JVMS), 2016)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1999-2001</t>
+          <t>2000-2002</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93）</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1422,12 +1422,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1999-2001</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）</t>
+          <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93）</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1444,10 +1444,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>未登録</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
           <t>**東京都健康安全研究センター** &lt;br&gt; インターネット販売食品の衛生学的実態調査 &lt;br&gt;（食品衛生研究, 65-70, 56(1), 2006）&lt;br&gt; 国立国会図書館に所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R100000002-I000000011637-i5462925)）</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>済</t>
         </is>

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,12 +827,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2011-2014</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>**島根県保健環境科学研究所** &lt;br&gt; [ウズラ卵が原因食品と推定された _Salmonella enterica_ serovar 4，［5］，12：i：一による食中毒の発生とウズラ卵のサルモネラ汚染状況調査](https://mol.medicalonline.jp/library/journal/download?GoodsID=ee5jsofm/2016/003303/012&amp;name=0160-0165j&amp;UserID=133.50.190.185&amp;base=jamas_pdf)</t>
+          <t>**** &lt;br&gt; [Antibiotic Resistance in Bacterial Pathogens from Retail Raw Meats and Food-Producing Animals in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23039777?via%3Dihub) &lt;br&gt; (Journal of Food Protection, Volume 75, Issue 10, 1 October 2012, Pages 1774-1782)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -844,17 +844,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2011-2014</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [各処理日の 1 番目・2 番目に処理されるブロイラー鶏群から製造された鶏肉のリステリア・モノサイトジェネス汚染状況の比較調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**島根県保健環境科学研究所** &lt;br&gt; [ウズラ卵が原因食品と推定された _Salmonella enterica_ serovar 4，［5］，12：i：一による食中毒の発生とウズラ卵のサルモネラ汚染状況調査](https://mol.medicalonline.jp/library/journal/download?GoodsID=ee5jsofm/2016/003303/012&amp;name=0160-0165j&amp;UserID=133.50.190.185&amp;base=jamas_pdf)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のカンピロバクター汚染の季節変化調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [各処理日の 1 番目・2 番目に処理されるブロイラー鶏群から製造された鶏肉のリステリア・モノサイトジェネス汚染状況の比較調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のサルモネラ汚染の季節変化調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のカンピロバクター汚染の季節変化調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [豚の肝臓のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/cam/02.html#24121)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のサルモネラ汚染の季節変化調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [豚の肝臓のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/sal/02.html#24221)</t>
+          <t>**農林水産省** &lt;br&gt; [豚の肝臓のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/cam/02.html#24121)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [豚の肝臓のリステリア・モノサイトジェネス汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/lis/02.html#24321)</t>
+          <t>**農林水産省** &lt;br&gt; [豚の肝臓のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/sal/02.html#24221)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -946,12 +946,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2010-2013</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [東京都内に流通する牛内臓肉からの糞便系大腸菌群，ベロ毒素産生性大腸菌，_Campylobacter jejuni_/_coli_, _Salmonella_ および _Listeria monocytogenes_ 検出状況](https://www.jstage.jst.go.jp/article/jsfm/32/4/32_209/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌　2015）</t>
+          <t>**農林水産省** &lt;br&gt; [豚の肝臓のリステリア・モノサイトジェネス汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/lis/02.html#24321)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -963,12 +963,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2010-2013</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [Prevalence and Characterization of Foodborne Pathogens in Dairy Cattle in the Eastern Part of Japan](https://www.jstage.jst.go.jp/article/jvms/75/4/75_12-0327/_pdf/-char/ja) &lt;br&gt; （Journal of Veterinary Medical Science 2013）</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [東京都内に流通する牛内臓肉からの糞便系大腸菌群，ベロ毒素産生性大腸菌，_Campylobacter jejuni_/_coli_, _Salmonella_ および _Listeria monocytogenes_ 検出状況](https://www.jstage.jst.go.jp/article/jsfm/32/4/32_209/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌　2015）</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [出荷前後のブロイラー鶏群のカンピロバクター保有状況と、製造された鶏肉のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku_cam_14.html)</t>
+          <t>**農林水産省** &lt;br&gt; [Prevalence and Characterization of Foodborne Pathogens in Dairy Cattle in the Eastern Part of Japan](https://www.jstage.jst.go.jp/article/jvms/75/4/75_12-0327/_pdf/-char/ja) &lt;br&gt; （Journal of Veterinary Medical Science 2013）</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のカンピロバクター濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [出荷前後のブロイラー鶏群のカンピロバクター保有状況と、製造された鶏肉のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku_cam_14.html)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のサルモネラ濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のカンピロバクター濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [採卵鶏農場のサルモネラ保有状況・鶏卵のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt;  - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiran/keiran_sal_03.html#22113)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のサルモネラ濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>**福岡県保健環境研究所** &lt;br&gt; [平成22年度食品の食中毒菌汚染実態調査](https://www.fihes.pref.fukuoka.jp/nenpoh/np38/pdf/np38report1.pdf) &lt;br&gt; （福岡県保健環境研究所年報第38号, 66-67, 2011）</t>
+          <t>**農林水産省** &lt;br&gt; [採卵鶏農場のサルモネラ保有状況・鶏卵のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt;  - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiran/keiran_sal_03.html#22113)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt; - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku_cam_06.html)</t>
+          <t>**福岡県保健環境研究所** &lt;br&gt; [平成22年度食品の食中毒菌汚染実態調査](https://www.fihes.pref.fukuoka.jp/nenpoh/np38/pdf/np38report1.pdf) &lt;br&gt; （福岡県保健環境研究所年報第38号, 66-67, 2011）</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt; - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku_cam_06.html)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[_Campylobacter_ contamination in retail poultry meats and by-products in Japan: A literature survey](https://www.sciencedirect.com/science/article/pii/S0956713508002247)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
@@ -1121,24 +1121,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>**天使大学** &lt;br&gt; [Prevalence and Characteristics of _Listeria monocytogenes_ in Bovine Colostrum in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23052547)</t>
+          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[_Campylobacter_ contamination in retail poultry meats and by-products in Japan: A literature survey](https://www.sciencedirect.com/science/article/pii/S0956713508002247)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2008-2018</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>**厚生労働省** &lt;br&gt; [食品中の食中毒菌汚染実態調査](https://www.mhlw.go.jp/stf/seisakunitsuite/bunya/kenkou_iryou/shokuhin/syokuchu/01.html)</t>
+          <t>**天使大学** &lt;br&gt; [Prevalence and Characteristics of _Listeria monocytogenes_ in Bovine Colostrum in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23052547)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1150,12 +1150,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2007-2008</t>
+          <t>2008-2018</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [生食用野菜における腸管出血性大腸菌及びサルモネラの実態調査](https://www.maff.go.jp/j/syouan/nouan/kome/k_yasai/pdf/press.pdf)</t>
+          <t>**厚生労働省** &lt;br&gt; [食品中の食中毒菌汚染実態調査](https://www.mhlw.go.jp/stf/seisakunitsuite/bunya/kenkou_iryou/shokuhin/syokuchu/01.html)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1167,12 +1167,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2007-2008</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [市販鶏卵のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt; - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiran/keiran_sal_04.html#22121)</t>
+          <t>**農林水産省** &lt;br&gt; [生食用野菜における腸管出血性大腸菌及びサルモネラの実態調査](https://www.maff.go.jp/j/syouan/nouan/kome/k_yasai/pdf/press.pdf)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>**帯広畜産大学** &lt;br&gt; [Isolation and characterization of _Listeria monocytogenes_ from commercial asazuke (Japanese light pickles)](https://www.sciencedirect.com/science/article/pii/S0168160510001686?via%3Dihub)</t>
+          <t>**農林水産省** &lt;br&gt; [市販鶏卵のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt; - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiran/keiran_sal_04.html#22121)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>**日本獣医生命科学大学** &lt;br&gt; [Isolation of _Listeria monocytogenes_ from the Skin of Slaughtered Beef Cattle](https://agriknowledge.affrc.go.jp/RN/2030760055.pdf)</t>
+          <t>**帯広畜産大学** &lt;br&gt; [Isolation and characterization of _Listeria monocytogenes_ from commercial asazuke (Japanese light pickles)](https://www.sciencedirect.com/science/article/pii/S0168160510001686?via%3Dihub)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1218,29 +1218,29 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2006-2008</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[The Occurrence of Listeria monocytogenes in Imported Ready-to-Eat Foods in Japan](https://www.jstage.jst.go.jp/article/jvms/74/3/74_11-0262/_pdf/-char/en) &lt;br&gt; (Journal of Veterinary Medical Science, 2012, Volume 74, Issue 3, Pages 373-375)</t>
+          <t>**日本獣医生命科学大学** &lt;br&gt; [Isolation of _Listeria monocytogenes_ from the Skin of Slaughtered Beef Cattle](https://agriknowledge.affrc.go.jp/RN/2030760055.pdf)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2006-2007</t>
+          <t>2006-2008</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>**宮城県保健環境センター** &lt;br&gt; [芽物野菜等の食中毒菌汚染実態調査](https://www.pref.miyagi.jp/documents/1943/617283.pdf) &lt;br&gt; （宮城県保健環境センター年報　第26号, p.103-104,　2008）</t>
+          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[The Occurrence of Listeria monocytogenes in Imported Ready-to-Eat Foods in Japan](https://www.jstage.jst.go.jp/article/jvms/74/3/74_11-0262/_pdf/-char/en) &lt;br&gt; (Journal of Veterinary Medical Science, 2012, Volume 74, Issue 3, Pages 373-375)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1252,12 +1252,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2006-2007</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>**宮城県保健環境センター** &lt;br&gt; [_Listeria monocytogenes_ による ready-to-eat 食品の汚染実態](https://www.pref.miyagi.jp/documents/1979/210526.pdf) &lt;br&gt;（宮城県保健環境センター年報　第 25 号　2007）</t>
+          <t>**宮城県保健環境センター** &lt;br&gt; [芽物野菜等の食中毒菌汚染実態調査](https://www.pref.miyagi.jp/documents/1943/617283.pdf) &lt;br&gt; （宮城県保健環境センター年報　第26号, p.103-104,　2008）</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1274,41 +1274,41 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>**神戸大学** &lt;br&gt; [市販ミンチ肉 における黄色ブドウ球菌汚染調査と分離株の性状](https://www.jstage.jst.go.jp/article/jsfm1994/23/4/23_4_217/_pdf/-char/ja)</t>
+          <t>**宮城県保健環境センター** &lt;br&gt; [_Listeria monocytogenes_ による ready-to-eat 食品の汚染実態](https://www.pref.miyagi.jp/documents/1979/210526.pdf) &lt;br&gt;（宮城県保健環境センター年報　第 25 号　2007）</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2004-2007</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>**日本獣医生命科学大学** &lt;br&gt; [Sequence-Based Characterization of _Listeria monocytogenes_ Strains Isolated from Domestic Retail Meat in the Tokyo Metropolitan Area of Japan](https://www.jstage.jst.go.jp/article/yoken/71/5/71_JJID.2017.582/_pdf/-char/en)</t>
+          <t>**神戸大学** &lt;br&gt; [市販ミンチ肉 における黄色ブドウ球菌汚染調査と分離株の性状](https://www.jstage.jst.go.jp/article/jsfm1994/23/4/23_4_217/_pdf/-char/ja)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2002-2004</t>
+          <t>2004-2007</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [漬け物製造施設における _Listeria monocytogenes_ の汚染実態について](https://www.pref.saitama.lg.jp/documents/231581/no39h17-2_p94~191.pdf) &lt;br&gt;（埼玉県衛生研究所年報 2005 Vol.39 p151-153）</t>
+          <t>**日本獣医生命科学大学** &lt;br&gt; [Sequence-Based Characterization of _Listeria monocytogenes_ Strains Isolated from Domestic Retail Meat in the Tokyo Metropolitan Area of Japan](https://www.jstage.jst.go.jp/article/yoken/71/5/71_JJID.2017.582/_pdf/-char/en)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1320,12 +1320,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2002-2003</t>
+          <t>2002-2004</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>**東京海洋大学** &lt;br&gt; [Incidence of _Listeria monocytogenes_ in Raw Seafood Products in Japanese Retail Stores](https://www.sciencedirect.com/science/article/pii/S0362028X22009371/pdf?md5=a3083f06f33e1de915e2df49fbcf05af&amp;pid=1-s2.0-S0362028X22009371-main.pdf)</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [漬け物製造施設における _Listeria monocytogenes_ の汚染実態について](https://www.pref.saitama.lg.jp/documents/231581/no39h17-2_p94~191.pdf) &lt;br&gt;（埼玉県衛生研究所年報 2005 Vol.39 p151-153）</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1337,12 +1337,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2001-2002</t>
+          <t>2002-2003</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立国会図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
+          <t>**東京海洋大学** &lt;br&gt; [Incidence of _Listeria monocytogenes_ in Raw Seafood Products in Japanese Retail Stores](https://www.sciencedirect.com/science/article/pii/S0362028X22009371/pdf?md5=a3083f06f33e1de915e2df49fbcf05af&amp;pid=1-s2.0-S0362028X22009371-main.pdf)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1354,12 +1354,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2001-2002</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立国会図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1371,12 +1371,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2000-2015</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [食品からの _Listeria monocytogenes_ 検出法および定量法の比較](https://www.jstage.jst.go.jp/article/jsfm/33/3/33_155/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌、2016）</t>
+          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1388,12 +1388,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2000-2012</t>
+          <t>2000-2015</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [Prevalence and contamination levels of _Listeria monocytogenes_ in ready-to-eat foods in Tokyo, Japan](https://www.jstage.jst.go.jp/article/jvms/78/7/78_15-0708/_pdf/-char/ja) &lt;br&gt; (Jarnal o Veterinary Medical Science (JVMS), 2016)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [食品からの _Listeria monocytogenes_ 検出法および定量法の比較](https://www.jstage.jst.go.jp/article/jsfm/33/3/33_155/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌、2016）</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1405,29 +1405,29 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2000-2002</t>
+          <t>2000-2012</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [Prevalence and contamination levels of _Listeria monocytogenes_ in ready-to-eat foods in Tokyo, Japan](https://www.jstage.jst.go.jp/article/jvms/78/7/78_15-0708/_pdf/-char/ja) &lt;br&gt; (Jarnal o Veterinary Medical Science (JVMS), 2016)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1999-2001</t>
+          <t>2000-2002</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93）</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1439,12 +1439,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1999-2001</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）</t>
+          <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93）</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1461,10 +1461,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>未登録</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
           <t>**東京都健康安全研究センター** &lt;br&gt; インターネット販売食品の衛生学的実態調査 &lt;br&gt;（食品衛生研究, 65-70, 56(1), 2006）&lt;br&gt; 国立国会図書館に所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R100000002-I000000011637-i5462925)）</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>済</t>
         </is>

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,29 +487,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2018-2022</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [スプラウトの微生物実態調査](https://www.maff.go.jp/j/syouan/nouan/kome/k_yasai/attach/pdf/index-7.pdf)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [東京都内の畜水産食品における食中毒菌検出状況（2019年度）](https://idsc.tmiph.metro.tokyo.lg.jp/assets/epid/2021/tbkj4203.pdf) &lt;br&gt; （東京都微生物検査情報 第42巻第3号）</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2018-2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>**和歌山県環境衛生研究センター** &lt;br&gt; [県内におけるサルモネラ属菌の薬剤耐性調査](https://www.pref.wakayama.lg.jp/prefg/031801/shohou/nenpo/shohou_d/fil/nenpo66.pdf) &lt;br&gt;（和歌山県環境衛生研究センター年報, No.66, 2020 p.41-44）</t>
+          <t>**農林水産省** &lt;br&gt; [スプラウトの微生物実態調査](https://www.maff.go.jp/j/syouan/nouan/kome/k_yasai/attach/pdf/index-7.pdf)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -521,12 +521,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>**大阪健康安全基盤研究所** &lt;br&gt; Ready-to-eat 食品製造環境のリステリア汚染状況と食品の特性に応じた汚染制御についての考察 &lt;br&gt; （[大阪健康安全基盤研究所研究年報, p.107, 2020](http://www.iph.osaka.jp/s004/060/reserch_annual_report-7_2023.pdf) / 月刊 HACCP, 10, 20-25 (2022)）&lt;br&gt; 検査内容不明</t>
+          <t>**和歌山県環境衛生研究センター** &lt;br&gt; [県内におけるサルモネラ属菌の薬剤耐性調査](https://www.pref.wakayama.lg.jp/prefg/031801/shohou/nenpo/shohou_d/fil/nenpo66.pdf) &lt;br&gt;（和歌山県環境衛生研究センター年報, No.66, 2020 p.41-44）</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -538,12 +538,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2017-2018</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>**日本獣医生命科学大学** &lt;br&gt; [市販鶏肉の _Campylobacter_ 属菌と _Listeria_ 属菌による汚染](https://www.jstage.jst.go.jp/article/jvma/74/5/74_321/_pdf/-char/ja) &lt;br&gt;（日本獣医師会雑誌　2021）</t>
+          <t>**大阪健康安全基盤研究所** &lt;br&gt; Ready-to-eat 食品製造環境のリステリア汚染状況と食品の特性に応じた汚染制御についての考察 &lt;br&gt; （[大阪健康安全基盤研究所研究年報, p.107, 2020](http://www.iph.osaka.jp/s004/060/reserch_annual_report-7_2023.pdf) / 月刊 HACCP, 10, 20-25 (2022)）&lt;br&gt; 検査内容不明</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -555,46 +555,46 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2017-2018</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [東京都内の畜水産食品における食中毒菌検出状況](https://idsc.tmiph.metro.tokyo.lg.jp/assets/epid/2019/tbkj4001.pdf) &lt;br&gt; （東京都微生物検査情報 第40巻第1号）</t>
+          <t>**日本獣医生命科学大学** &lt;br&gt; [市販鶏肉の _Campylobacter_ 属菌と _Listeria_ 属菌による汚染](https://www.jstage.jst.go.jp/article/jvma/74/5/74_321/_pdf/-char/ja) &lt;br&gt;（日本獣医師会雑誌　2021）</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>**大阪健康安全基盤研究所** &lt;br&gt; [アイスクリーム製造施設の _Listeria monocytogenes_ 汚染状況](https://www.city.osaka.lg.jp/kenko/cmsfiles/contents/0000428/428619/r2016_05-10.pdf) &lt;br&gt;（大阪市立環科研報告 平成28年度 第79集，5-10 2017 / [研究年報 No.1 (2017) p.131](https://www.iph.osaka.jp/s004/060/reserch_annual_report-1_2017.pdf)）</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [東京都内の畜水産食品における食中毒菌検出状況（2017年度）](https://idsc.tmiph.metro.tokyo.lg.jp/assets/epid/2019/tbkj4001.pdf) &lt;br&gt; （東京都微生物検査情報 第40巻第1号）</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2015-2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>**和歌山県環境衛生研究センター** &lt;br&gt; [食肉におけるリステリア汚染実態調査](https://www.pref.wakayama.lg.jp/prefg/031801/shohou/nenpo/shohou_d/fil/nenpo64.pdf) &lt;br&gt;（和歌山県環境衛生研究センター年報, No.64, p.40-42, 2018）</t>
+          <t>**大阪健康安全基盤研究所** &lt;br&gt; [アイスクリーム製造施設の _Listeria monocytogenes_ 汚染状況](https://www.city.osaka.lg.jp/kenko/cmsfiles/contents/0000428/428619/r2016_05-10.pdf) &lt;br&gt;（大阪市立環科研報告 平成28年度 第79集，5-10 2017 / [研究年報 No.1 (2017) p.131](https://www.iph.osaka.jp/s004/060/reserch_annual_report-1_2017.pdf)）</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -606,12 +606,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2015-2017</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>**千葉県衛生研究所** &lt;br&gt; [千葉県内流通浅漬けの _Listeria monocytogenes_ を中心とした汚染状況調査-平成27年度の収去および買い上げ検体微生物検査成績-](https://www.pref.chiba.lg.jp/eiken/eiseikenkyuu/shuppanbutsu/nenpou/documents/64s-3.pdf) &lt;br&gt;（千葉県衛生研究所年報 第64号 2015年）</t>
+          <t>**和歌山県環境衛生研究センター** &lt;br&gt; [食肉におけるリステリア汚染実態調査](https://www.pref.wakayama.lg.jp/prefg/031801/shohou/nenpo/shohou_d/fil/nenpo64.pdf) &lt;br&gt;（和歌山県環境衛生研究センター年報, No.64, p.40-42, 2018）</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -623,12 +623,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2014, 2015</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>**大阪健康安全基盤研究所** &lt;br&gt; [Prevalence of _Listeria monocytogenes_ in Retail Lightly Pickled Vegetables and Its Successful Control at Processing Plants](https://www.sciencedirect.com/science/article/pii/S0362028X22097186) &lt;br&gt; (Journal of Food Protection 2017)</t>
+          <t>**千葉県衛生研究所** &lt;br&gt; [千葉県内流通浅漬けの _Listeria monocytogenes_ を中心とした汚染状況調査-平成27年度の収去および買い上げ検体微生物検査成績-](https://www.pref.chiba.lg.jp/eiken/eiseikenkyuu/shuppanbutsu/nenpou/documents/64s-3.pdf) &lt;br&gt;（千葉県衛生研究所年報 第64号 2015年）</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -640,46 +640,46 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2014-2021</t>
+          <t>2014, 2015</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>**埼玉県** &lt;br&gt; [埼玉県内の市販食肉における食中毒細菌の汚染実態調査](https://agriknowledge.affrc.go.jp/RN/2030945004.pdf)</t>
+          <t>**大阪健康安全基盤研究所** &lt;br&gt; [Prevalence of _Listeria monocytogenes_ in Retail Lightly Pickled Vegetables and Its Successful Control at Processing Plants](https://www.sciencedirect.com/science/article/pii/S0362028X22097186) &lt;br&gt; (Journal of Food Protection 2017)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2014-2021</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [採卵鶏農場のサルモネラ保有状況・鶏卵のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiran/keiran_sal_05.html)</t>
+          <t>**埼玉県** &lt;br&gt; [埼玉県内の市販食肉における食中毒細菌の汚染実態調査](https://agriknowledge.affrc.go.jp/RN/2030945004.pdf)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2013-2016</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [生食用野菜の微生物実態調査](https://www.maff.go.jp/j/syouan/nouan/kome/k_yasai/attach/pdf/index-17.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [採卵鶏農場のサルモネラ保有状況・鶏卵のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiran/keiran_sal_05.html)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -691,12 +691,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2013-2016</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>**福岡市保健環境研究所** &lt;br&gt; [市販生食用鶏肉のカンピロバクター，サルモネラ，リステリア・モノサイトゲネスおよびアルコバクター汚染と推定大腸菌数の検討](https://www.jstage.jst.go.jp/article/jsfm/31/3/31_171/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌　2014）</t>
+          <t>**農林水産省** &lt;br&gt; [生食用野菜の微生物実態調査](https://www.maff.go.jp/j/syouan/nouan/kome/k_yasai/attach/pdf/index-17.pdf)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -708,17 +708,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2013-2015</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku_cam_12.html)</t>
+          <t>**大阪健康安全基盤研究所** &lt;br&gt; [浅漬、洋生菓子、魚介類工品の細菌汚染実態調査](https://www.iph.osaka.jp/s008/030/010/010/020/20180106162000.html)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku/sal/12.html)</t>
+          <t>**福岡市保健環境研究所** &lt;br&gt; [市販生食用鶏肉のカンピロバクター，サルモネラ，リステリア・モノサイトゲネスおよびアルコバクター汚染と推定大腸菌数の検討](https://www.jstage.jst.go.jp/article/jsfm/31/3/31_171/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌　2014）</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -742,12 +742,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2012, 2017</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>**九州大学** &lt;br&gt; [Antimicrobial resistance profiles of _Listeria monocytogenes_ isolated from chicken meat in Fukuoka, Japan](https://www.sciencedirect.com/science/article/pii/S0168160519301291)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku_cam_12.html)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -759,12 +759,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2012-2013</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>**帯広畜産大学** &lt;br&gt; [Microbial Assessment and Prevalence of Foodborne Pathogens in Natural Cheeses in Japan](https://onlinelibrary.wiley.com/doi/full/10.1155/2013/205801) &lt;br&gt;（BioMed Research International Volume 2013, Issue 1 205801）</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku/sal/12.html)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2012, 2017</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のリステリア・モノサイトジェネス汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**九州大学** &lt;br&gt; [Antimicrobial resistance profiles of _Listeria monocytogenes_ isolated from chicken meat in Fukuoka, Japan](https://www.sciencedirect.com/science/article/pii/S0168160519301291)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -793,17 +793,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2012-2013</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>**福岡県保健環境研究所** &lt;br&gt; [平成24年度食品の食中毒菌汚染実態調査](https://www.fihes.pref.fukuoka.jp/nenpoh/np40/pdf/np40report3.pdf) &lt;br&gt; （福岡県保健環境研究所年報第40号, 116-118, 2013）</t>
+          <t>**帯広畜産大学** &lt;br&gt; [Microbial Assessment and Prevalence of Foodborne Pathogens in Natural Cheeses in Japan](https://onlinelibrary.wiley.com/doi/full/10.1155/2013/205801) &lt;br&gt;（BioMed Research International Volume 2013, Issue 1 205801）</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>**神奈川県衛生研究所** &lt;br&gt; [Prevalence and Characteristics of _Salmonella_ and _Campylobacter_ in Retail Poultry Meat in Japan](https://www.jstage.jst.go.jp/article/yoken/70/3/70_JJID.2016.164/_pdf/-char/en)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のリステリア・モノサイトジェネス汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>**** &lt;br&gt; [Antibiotic Resistance in Bacterial Pathogens from Retail Raw Meats and Food-Producing Animals in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23039777?via%3Dihub) &lt;br&gt; (Journal of Food Protection, Volume 75, Issue 10, 1 October 2012, Pages 1774-1782)</t>
+          <t>**福岡県保健環境研究所** &lt;br&gt; [平成24年度食品の食中毒菌汚染実態調査](https://www.fihes.pref.fukuoka.jp/nenpoh/np40/pdf/np40report3.pdf) &lt;br&gt; （福岡県保健環境研究所年報第40号, 116-118, 2013）</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -844,12 +844,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2011-2014</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>**島根県保健環境科学研究所** &lt;br&gt; [ウズラ卵が原因食品と推定された _Salmonella enterica_ serovar 4，［5］，12：i：一による食中毒の発生とウズラ卵のサルモネラ汚染状況調査](https://mol.medicalonline.jp/library/journal/download?GoodsID=ee5jsofm/2016/003303/012&amp;name=0160-0165j&amp;UserID=133.50.190.185&amp;base=jamas_pdf)</t>
+          <t>**神奈川県衛生研究所** &lt;br&gt; [Prevalence and Characteristics of _Salmonella_ and _Campylobacter_ in Retail Poultry Meat in Japan](https://www.jstage.jst.go.jp/article/yoken/70/3/70_JJID.2016.164/_pdf/-char/en)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -861,34 +861,34 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [各処理日の 1 番目・2 番目に処理されるブロイラー鶏群から製造された鶏肉のリステリア・モノサイトジェネス汚染状況の比較調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**** &lt;br&gt; [Antibiotic Resistance in Bacterial Pathogens from Retail Raw Meats and Food-Producing Animals in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23039777?via%3Dihub) &lt;br&gt; (Journal of Food Protection, Volume 75, Issue 10, 1 October 2012, Pages 1774-1782)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2011-2014</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のカンピロバクター汚染の季節変化調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**島根県保健環境科学研究所** &lt;br&gt; [ウズラ卵が原因食品と推定された _Salmonella enterica_ serovar 4，［5］，12：i：一による食中毒の発生とウズラ卵のサルモネラ汚染状況調査](https://mol.medicalonline.jp/library/journal/download?GoodsID=ee5jsofm/2016/003303/012&amp;name=0160-0165j&amp;UserID=133.50.190.185&amp;base=jamas_pdf)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のサルモネラ汚染の季節変化調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [各処理日の 1 番目・2 番目に処理されるブロイラー鶏群から製造された鶏肉のリステリア・モノサイトジェネス汚染状況の比較調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [豚の肝臓のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/cam/02.html#24121)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のカンピロバクター汚染の季節変化調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [豚の肝臓のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/sal/02.html#24221)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のサルモネラ汚染の季節変化調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [豚の肝臓のリステリア・モノサイトジェネス汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/lis/02.html#24321)</t>
+          <t>**農林水産省** &lt;br&gt; [豚の肝臓のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/cam/02.html#24121)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -963,12 +963,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2010-2013</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [東京都内に流通する牛内臓肉からの糞便系大腸菌群，ベロ毒素産生性大腸菌，_Campylobacter jejuni_/_coli_, _Salmonella_ および _Listeria monocytogenes_ 検出状況](https://www.jstage.jst.go.jp/article/jsfm/32/4/32_209/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌　2015）</t>
+          <t>**農林水産省** &lt;br&gt; [豚の肝臓のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/sal/02.html#24221)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -980,12 +980,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [Prevalence and Characterization of Foodborne Pathogens in Dairy Cattle in the Eastern Part of Japan](https://www.jstage.jst.go.jp/article/jvms/75/4/75_12-0327/_pdf/-char/ja) &lt;br&gt; （Journal of Veterinary Medical Science 2013）</t>
+          <t>**農林水産省** &lt;br&gt; [豚の肝臓のリステリア・モノサイトジェネス汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/lis/02.html#24321)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -997,12 +997,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2010-2013</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [出荷前後のブロイラー鶏群のカンピロバクター保有状況と、製造された鶏肉のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku_cam_14.html)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [東京都内に流通する牛内臓肉からの糞便系大腸菌群，ベロ毒素産生性大腸菌，_Campylobacter jejuni_/_coli_, _Salmonella_ および _Listeria monocytogenes_ 検出状況](https://www.jstage.jst.go.jp/article/jsfm/32/4/32_209/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌　2015）</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のカンピロバクター濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [Prevalence and Characterization of Foodborne Pathogens in Dairy Cattle in the Eastern Part of Japan](https://www.jstage.jst.go.jp/article/jvms/75/4/75_12-0327/_pdf/-char/ja) &lt;br&gt; （Journal of Veterinary Medical Science 2013）</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のサルモネラ濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [出荷前後のブロイラー鶏群のカンピロバクター保有状況と、製造された鶏肉のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku_cam_14.html)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [採卵鶏農場のサルモネラ保有状況・鶏卵のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt;  - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiran/keiran_sal_03.html#22113)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のカンピロバクター濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1070,24 +1070,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>**福岡県保健環境研究所** &lt;br&gt; [平成22年度食品の食中毒菌汚染実態調査](https://www.fihes.pref.fukuoka.jp/nenpoh/np38/pdf/np38report1.pdf) &lt;br&gt; （福岡県保健環境研究所年報第38号, 66-67, 2011）</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のサルモネラ濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt; - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku_cam_06.html)</t>
+          <t>**農林水産省** &lt;br&gt; [採卵鶏農場のサルモネラ保有状況・鶏卵のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt;  - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiran/keiran_sal_03.html#22113)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1099,17 +1099,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**福岡県保健環境研究所** &lt;br&gt; [平成22年度食品の食中毒菌汚染実態調査](https://www.fihes.pref.fukuoka.jp/nenpoh/np38/pdf/np38report1.pdf) &lt;br&gt; （福岡県保健環境研究所年報第38号, 66-67, 2011）</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[_Campylobacter_ contamination in retail poultry meats and by-products in Japan: A literature survey](https://www.sciencedirect.com/science/article/pii/S0956713508002247)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt; - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku_cam_06.html)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>**天使大学** &lt;br&gt; [Prevalence and Characteristics of _Listeria monocytogenes_ in Bovine Colostrum in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23052547)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1150,29 +1150,29 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2008-2018</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>**厚生労働省** &lt;br&gt; [食品中の食中毒菌汚染実態調査](https://www.mhlw.go.jp/stf/seisakunitsuite/bunya/kenkou_iryou/shokuhin/syokuchu/01.html)</t>
+          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[_Campylobacter_ contamination in retail poultry meats and by-products in Japan: A literature survey](https://www.sciencedirect.com/science/article/pii/S0956713508002247)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2007-2008</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [生食用野菜における腸管出血性大腸菌及びサルモネラの実態調査](https://www.maff.go.jp/j/syouan/nouan/kome/k_yasai/pdf/press.pdf)</t>
+          <t>**天使大学** &lt;br&gt; [Prevalence and Characteristics of _Listeria monocytogenes_ in Bovine Colostrum in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23052547)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1184,12 +1184,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2008-2018</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [市販鶏卵のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt; - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiran/keiran_sal_04.html#22121)</t>
+          <t>**厚生労働省** &lt;br&gt; [食品中の食中毒菌汚染実態調査](https://www.mhlw.go.jp/stf/seisakunitsuite/bunya/kenkou_iryou/shokuhin/syokuchu/01.html)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1201,17 +1201,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2007-2008</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>**帯広畜産大学** &lt;br&gt; [Isolation and characterization of _Listeria monocytogenes_ from commercial asazuke (Japanese light pickles)](https://www.sciencedirect.com/science/article/pii/S0168160510001686?via%3Dihub)</t>
+          <t>**農林水産省** &lt;br&gt; [生食用野菜における腸管出血性大腸菌及びサルモネラの実態調査](https://www.maff.go.jp/j/syouan/nouan/kome/k_yasai/pdf/press.pdf)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
@@ -1223,58 +1223,58 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>**日本獣医生命科学大学** &lt;br&gt; [Isolation of _Listeria monocytogenes_ from the Skin of Slaughtered Beef Cattle](https://agriknowledge.affrc.go.jp/RN/2030760055.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [市販鶏卵のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt; - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiran/keiran_sal_04.html#22121)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2006-2008</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[The Occurrence of Listeria monocytogenes in Imported Ready-to-Eat Foods in Japan](https://www.jstage.jst.go.jp/article/jvms/74/3/74_11-0262/_pdf/-char/en) &lt;br&gt; (Journal of Veterinary Medical Science, 2012, Volume 74, Issue 3, Pages 373-375)</t>
+          <t>**帯広畜産大学** &lt;br&gt; [Isolation and characterization of _Listeria monocytogenes_ from commercial asazuke (Japanese light pickles)](https://www.sciencedirect.com/science/article/pii/S0168160510001686?via%3Dihub)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2006-2007</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>**宮城県保健環境センター** &lt;br&gt; [芽物野菜等の食中毒菌汚染実態調査](https://www.pref.miyagi.jp/documents/1943/617283.pdf) &lt;br&gt; （宮城県保健環境センター年報　第26号, p.103-104,　2008）</t>
+          <t>**日本獣医生命科学大学** &lt;br&gt; [Isolation of _Listeria monocytogenes_ from the Skin of Slaughtered Beef Cattle](https://agriknowledge.affrc.go.jp/RN/2030760055.pdf)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2006-2008</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>**宮城県保健環境センター** &lt;br&gt; [_Listeria monocytogenes_ による ready-to-eat 食品の汚染実態](https://www.pref.miyagi.jp/documents/1979/210526.pdf) &lt;br&gt;（宮城県保健環境センター年報　第 25 号　2007）</t>
+          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[The Occurrence of Listeria monocytogenes in Imported Ready-to-Eat Foods in Japan](https://www.jstage.jst.go.jp/article/jvms/74/3/74_11-0262/_pdf/-char/en) &lt;br&gt; (Journal of Veterinary Medical Science, 2012, Volume 74, Issue 3, Pages 373-375)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1286,29 +1286,29 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2006-2007</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>**神戸大学** &lt;br&gt; [市販ミンチ肉 における黄色ブドウ球菌汚染調査と分離株の性状](https://www.jstage.jst.go.jp/article/jsfm1994/23/4/23_4_217/_pdf/-char/ja)</t>
+          <t>**宮城県保健環境センター** &lt;br&gt; [芽物野菜等の食中毒菌汚染実態調査](https://www.pref.miyagi.jp/documents/1943/617283.pdf) &lt;br&gt; （宮城県保健環境センター年報　第26号, p.103-104,　2008）</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2004-2007</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>**日本獣医生命科学大学** &lt;br&gt; [Sequence-Based Characterization of _Listeria monocytogenes_ Strains Isolated from Domestic Retail Meat in the Tokyo Metropolitan Area of Japan](https://www.jstage.jst.go.jp/article/yoken/71/5/71_JJID.2017.582/_pdf/-char/en)</t>
+          <t>**宮城県保健環境センター** &lt;br&gt; [_Listeria monocytogenes_ による ready-to-eat 食品の汚染実態](https://www.pref.miyagi.jp/documents/1979/210526.pdf) &lt;br&gt;（宮城県保健環境センター年報　第 25 号　2007）</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1320,29 +1320,29 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2002-2004</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [漬け物製造施設における _Listeria monocytogenes_ の汚染実態について](https://www.pref.saitama.lg.jp/documents/231581/no39h17-2_p94~191.pdf) &lt;br&gt;（埼玉県衛生研究所年報 2005 Vol.39 p151-153）</t>
+          <t>**神戸大学** &lt;br&gt; [市販ミンチ肉における黄色ブドウ球菌汚染調査と分離株の性状](https://www.jstage.jst.go.jp/article/jsfm1994/23/4/23_4_217/_pdf/-char/ja) &lt;br&gt; （日本食品微生物学会雑誌, 23 (4), 217-222, 2006）</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2002-2003</t>
+          <t>2004-2007</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>**東京海洋大学** &lt;br&gt; [Incidence of _Listeria monocytogenes_ in Raw Seafood Products in Japanese Retail Stores](https://www.sciencedirect.com/science/article/pii/S0362028X22009371/pdf?md5=a3083f06f33e1de915e2df49fbcf05af&amp;pid=1-s2.0-S0362028X22009371-main.pdf)</t>
+          <t>**日本獣医生命科学大学** &lt;br&gt; [Sequence-Based Characterization of _Listeria monocytogenes_ Strains Isolated from Domestic Retail Meat in the Tokyo Metropolitan Area of Japan](https://www.jstage.jst.go.jp/article/yoken/71/5/71_JJID.2017.582/_pdf/-char/en)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1354,12 +1354,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2001-2002</t>
+          <t>2002-2004</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立国会図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [漬け物製造施設における _Listeria monocytogenes_ の汚染実態について](https://www.pref.saitama.lg.jp/documents/231581/no39h17-2_p94~191.pdf) &lt;br&gt;（埼玉県衛生研究所年報 2005 Vol.39 p151-153）</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1371,12 +1371,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2002-2003</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
+          <t>**東京海洋大学** &lt;br&gt; [Incidence of _Listeria monocytogenes_ in Raw Seafood Products in Japanese Retail Stores](https://www.sciencedirect.com/science/article/pii/S0362028X22009371/pdf?md5=a3083f06f33e1de915e2df49fbcf05af&amp;pid=1-s2.0-S0362028X22009371-main.pdf)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1388,12 +1388,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2000-2015</t>
+          <t>2001-2002</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [食品からの _Listeria monocytogenes_ 検出法および定量法の比較](https://www.jstage.jst.go.jp/article/jsfm/33/3/33_155/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌、2016）</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立国会図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1405,12 +1405,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2000-2012</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [Prevalence and contamination levels of _Listeria monocytogenes_ in ready-to-eat foods in Tokyo, Japan](https://www.jstage.jst.go.jp/article/jvms/78/7/78_15-0708/_pdf/-char/ja) &lt;br&gt; (Jarnal o Veterinary Medical Science (JVMS), 2016)</t>
+          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1422,46 +1422,46 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2000-2002</t>
+          <t>2000-2015</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [食品からの _Listeria monocytogenes_ 検出法および定量法の比較](https://www.jstage.jst.go.jp/article/jsfm/33/3/33_155/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌、2016）</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1999-2001</t>
+          <t>2000-2012</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93）</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [Prevalence and contamination levels of _Listeria monocytogenes_ in ready-to-eat foods in Tokyo, Japan](https://www.jstage.jst.go.jp/article/jvms/78/7/78_15-0708/_pdf/-char/ja) &lt;br&gt; (Jarnal o Veterinary Medical Science (JVMS), 2016)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2000-2002</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1473,15 +1473,49 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>1999-2001</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93）</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>未登録</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>未登録</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>**東京都健康安全研究センター** &lt;br&gt; インターネット販売食品の衛生学的実態調査 &lt;br&gt;（食品衛生研究, 65-70, 56(1), 2006）&lt;br&gt; 国立国会図書館に所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R100000002-I000000011637-i5462925)）</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>済</t>
         </is>

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -662,7 +662,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>**埼玉県** &lt;br&gt; [埼玉県内の市販食肉における食中毒細菌の汚染実態調査](https://agriknowledge.affrc.go.jp/RN/2030945004.pdf)</t>
+          <t>**埼玉県** &lt;br&gt; [埼玉県内の市販食肉における食中毒細菌の汚染実態調査](https://agriknowledge.affrc.go.jp/RN/2030945004.pdf) &lt;br&gt;（食品衛生学雑誌, 63巻4号, p.151-157）</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>**神奈川県衛生研究所** &lt;br&gt; [Prevalence and Characteristics of _Salmonella_ and _Campylobacter_ in Retail Poultry Meat in Japan](https://www.jstage.jst.go.jp/article/yoken/70/3/70_JJID.2016.164/_pdf/-char/en)</t>
+          <t>**神奈川県衛生研究所** &lt;br&gt; [Prevalence and Characteristics of _Salmonella_ and _Campylobacter_ in Retail Poultry Meat in Japan](https://www.jstage.jst.go.jp/article/yoken/70/3/70_JJID.2016.164/_pdf/-char/en) &lt;br&gt; (Japanese Journal of Infectious Diseases, 70, 239-247, 2017)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -662,7 +662,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>**埼玉県** &lt;br&gt; [埼玉県内の市販食肉における食中毒細菌の汚染実態調査](https://agriknowledge.affrc.go.jp/RN/2030945004.pdf) &lt;br&gt;（食品衛生学雑誌, 63巻4号, p.151-157）</t>
+          <t>**埼玉県** &lt;br&gt; [埼玉県内の市販食肉における食中毒細菌の汚染実態調査](https://agriknowledge.affrc.go.jp/RN/2030945004.pdf)（[関連リンク](https://www.jstage.jst.go.jp/article/shokueishi/63/4/63_151/_article/-char/ja/)） &lt;br&gt;（食品衛生学雑誌, 63巻4号, p.151-157）</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>**** &lt;br&gt; [Antibiotic Resistance in Bacterial Pathogens from Retail Raw Meats and Food-Producing Animals in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23039777?via%3Dihub) &lt;br&gt; (Journal of Food Protection, Volume 75, Issue 10, 1 October 2012, Pages 1774-1782)</t>
+          <t>**静岡県環境衛生科学研究所** &lt;br&gt; [Antibiotic Resistance in Bacterial Pathogens from Retail Raw Meats and Food-Producing Animals in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23039777?via%3Dihub) &lt;br&gt; (Journal of Food Protection, Volume 75, Issue 10, 1 October 2012, Pages 1774-1782)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -861,34 +861,34 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2011-2014</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>**静岡県環境衛生科学研究所** &lt;br&gt; [Antibiotic Resistance in Bacterial Pathogens from Retail Raw Meats and Food-Producing Animals in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23039777?via%3Dihub) &lt;br&gt; (Journal of Food Protection, Volume 75, Issue 10, 1 October 2012, Pages 1774-1782)</t>
+          <t>**島根県保健環境科学研究所** &lt;br&gt; [ウズラ卵が原因食品と推定された _Salmonella enterica_ serovar 4，［5］，12：i：一による食中毒の発生とウズラ卵のサルモネラ汚染状況調査](https://mol.medicalonline.jp/library/journal/download?GoodsID=ee5jsofm/2016/003303/012&amp;name=0160-0165j&amp;UserID=133.50.190.185&amp;base=jamas_pdf)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2011-2014</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>**島根県保健環境科学研究所** &lt;br&gt; [ウズラ卵が原因食品と推定された _Salmonella enterica_ serovar 4，［5］，12：i：一による食中毒の発生とウズラ卵のサルモネラ汚染状況調査](https://mol.medicalonline.jp/library/journal/download?GoodsID=ee5jsofm/2016/003303/012&amp;name=0160-0165j&amp;UserID=133.50.190.185&amp;base=jamas_pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [各処理日の 1 番目・2 番目に処理されるブロイラー鶏群から製造された鶏肉のリステリア・モノサイトジェネス汚染状況の比較調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [各処理日の 1 番目・2 番目に処理されるブロイラー鶏群から製造された鶏肉のリステリア・モノサイトジェネス汚染状況の比較調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のカンピロバクター汚染の季節変化調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のカンピロバクター汚染の季節変化調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のサルモネラ汚染の季節変化調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のサルモネラ汚染の季節変化調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [豚の肝臓のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/cam/02.html#24121)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [豚の肝臓のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/cam/02.html#24121)</t>
+          <t>**農林水産省** &lt;br&gt; [豚の肝臓のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/sal/02.html#24221)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [豚の肝臓のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/sal/02.html#24221)</t>
+          <t>**農林水産省** &lt;br&gt; [豚の肝臓のリステリア・モノサイトジェネス汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/lis/02.html#24321)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -980,12 +980,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010-2013</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [豚の肝臓のリステリア・モノサイトジェネス汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/lis/02.html#24321)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [東京都内に流通する牛内臓肉からの糞便系大腸菌群，ベロ毒素産生性大腸菌，_Campylobacter jejuni_/_coli_, _Salmonella_ および _Listeria monocytogenes_ 検出状況](https://www.jstage.jst.go.jp/article/jsfm/32/4/32_209/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌　2015）</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -997,12 +997,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2010-2013</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [東京都内に流通する牛内臓肉からの糞便系大腸菌群，ベロ毒素産生性大腸菌，_Campylobacter jejuni_/_coli_, _Salmonella_ および _Listeria monocytogenes_ 検出状況](https://www.jstage.jst.go.jp/article/jsfm/32/4/32_209/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌　2015）</t>
+          <t>**農林水産省** &lt;br&gt; [Prevalence and Characterization of Foodborne Pathogens in Dairy Cattle in the Eastern Part of Japan](https://www.jstage.jst.go.jp/article/jvms/75/4/75_12-0327/_pdf/-char/ja) &lt;br&gt; （Journal of Veterinary Medical Science 2013）</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [Prevalence and Characterization of Foodborne Pathogens in Dairy Cattle in the Eastern Part of Japan](https://www.jstage.jst.go.jp/article/jvms/75/4/75_12-0327/_pdf/-char/ja) &lt;br&gt; （Journal of Veterinary Medical Science 2013）</t>
+          <t>**農林水産省** &lt;br&gt; [出荷前後のブロイラー鶏群のカンピロバクター保有状況と、製造された鶏肉のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku_cam_14.html)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [出荷前後のブロイラー鶏群のカンピロバクター保有状況と、製造された鶏肉のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku_cam_14.html)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のカンピロバクター濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のカンピロバクター濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のサルモネラ濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のサルモネラ濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [採卵鶏農場のサルモネラ保有状況・鶏卵のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt;  - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiran/keiran_sal_03.html#22113)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1087,29 +1087,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [採卵鶏農場のサルモネラ保有状況・鶏卵のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt;  - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiran/keiran_sal_03.html#22113)</t>
+          <t>**福岡県保健環境研究所** &lt;br&gt; [平成22年度食品の食中毒菌汚染実態調査](https://www.fihes.pref.fukuoka.jp/nenpoh/np38/pdf/np38report1.pdf) &lt;br&gt; （福岡県保健環境研究所年報第38号, 66-67, 2011）</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>**福岡県保健環境研究所** &lt;br&gt; [平成22年度食品の食中毒菌汚染実態調査](https://www.fihes.pref.fukuoka.jp/nenpoh/np38/pdf/np38report1.pdf) &lt;br&gt; （福岡県保健環境研究所年報第38号, 66-67, 2011）</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt; - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku_cam_06.html)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt; - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku_cam_06.html)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[_Campylobacter_ contamination in retail poultry meats and by-products in Japan: A literature survey](https://www.sciencedirect.com/science/article/pii/S0956713508002247)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
@@ -1155,24 +1155,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[_Campylobacter_ contamination in retail poultry meats and by-products in Japan: A literature survey](https://www.sciencedirect.com/science/article/pii/S0956713508002247)</t>
+          <t>**天使大学** &lt;br&gt; [Prevalence and Characteristics of _Listeria monocytogenes_ in Bovine Colostrum in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23052547)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2008-2018</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>**天使大学** &lt;br&gt; [Prevalence and Characteristics of _Listeria monocytogenes_ in Bovine Colostrum in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23052547)</t>
+          <t>**厚生労働省** &lt;br&gt; [食品中の食中毒菌汚染実態調査](https://www.mhlw.go.jp/stf/seisakunitsuite/bunya/kenkou_iryou/shokuhin/syokuchu/01.html)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1184,12 +1184,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2008-2018</t>
+          <t>2007-2008</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>**厚生労働省** &lt;br&gt; [食品中の食中毒菌汚染実態調査](https://www.mhlw.go.jp/stf/seisakunitsuite/bunya/kenkou_iryou/shokuhin/syokuchu/01.html)</t>
+          <t>**農林水産省** &lt;br&gt; [生食用野菜における腸管出血性大腸菌及びサルモネラの実態調査](https://www.maff.go.jp/j/syouan/nouan/kome/k_yasai/pdf/press.pdf)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1201,12 +1201,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2007-2008</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [生食用野菜における腸管出血性大腸菌及びサルモネラの実態調査](https://www.maff.go.jp/j/syouan/nouan/kome/k_yasai/pdf/press.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [市販鶏卵のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt; - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiran/keiran_sal_04.html#22121)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [市販鶏卵のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt; - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiran/keiran_sal_04.html#22121)</t>
+          <t>**帯広畜産大学** &lt;br&gt; [Isolation and characterization of _Listeria monocytogenes_ from commercial asazuke (Japanese light pickles)](https://www.sciencedirect.com/science/article/pii/S0168160510001686?via%3Dihub)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>**帯広畜産大学** &lt;br&gt; [Isolation and characterization of _Listeria monocytogenes_ from commercial asazuke (Japanese light pickles)](https://www.sciencedirect.com/science/article/pii/S0168160510001686?via%3Dihub)</t>
+          <t>**日本獣医生命科学大学** &lt;br&gt; [Isolation of _Listeria monocytogenes_ from the Skin of Slaughtered Beef Cattle](https://agriknowledge.affrc.go.jp/RN/2030760055.pdf)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1252,29 +1252,29 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2006-2008</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>**日本獣医生命科学大学** &lt;br&gt; [Isolation of _Listeria monocytogenes_ from the Skin of Slaughtered Beef Cattle](https://agriknowledge.affrc.go.jp/RN/2030760055.pdf)</t>
+          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[The Occurrence of Listeria monocytogenes in Imported Ready-to-Eat Foods in Japan](https://www.jstage.jst.go.jp/article/jvms/74/3/74_11-0262/_pdf/-char/en) &lt;br&gt; (Journal of Veterinary Medical Science, 2012, Volume 74, Issue 3, Pages 373-375)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2006-2008</t>
+          <t>2006-2007</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[The Occurrence of Listeria monocytogenes in Imported Ready-to-Eat Foods in Japan](https://www.jstage.jst.go.jp/article/jvms/74/3/74_11-0262/_pdf/-char/en) &lt;br&gt; (Journal of Veterinary Medical Science, 2012, Volume 74, Issue 3, Pages 373-375)</t>
+          <t>**宮城県保健環境センター** &lt;br&gt; [芽物野菜等の食中毒菌汚染実態調査](https://www.pref.miyagi.jp/documents/1943/617283.pdf) &lt;br&gt; （宮城県保健環境センター年報　第26号, p.103-104,　2008）</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1286,12 +1286,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2006-2007</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>**宮城県保健環境センター** &lt;br&gt; [芽物野菜等の食中毒菌汚染実態調査](https://www.pref.miyagi.jp/documents/1943/617283.pdf) &lt;br&gt; （宮城県保健環境センター年報　第26号, p.103-104,　2008）</t>
+          <t>**宮城県保健環境センター** &lt;br&gt; [_Listeria monocytogenes_ による ready-to-eat 食品の汚染実態](https://www.pref.miyagi.jp/documents/1979/210526.pdf) &lt;br&gt;（宮城県保健環境センター年報　第 25 号　2007）</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1308,41 +1308,41 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>**宮城県保健環境センター** &lt;br&gt; [_Listeria monocytogenes_ による ready-to-eat 食品の汚染実態](https://www.pref.miyagi.jp/documents/1979/210526.pdf) &lt;br&gt;（宮城県保健環境センター年報　第 25 号　2007）</t>
+          <t>**神戸大学** &lt;br&gt; [市販ミンチ肉における黄色ブドウ球菌汚染調査と分離株の性状](https://www.jstage.jst.go.jp/article/jsfm1994/23/4/23_4_217/_pdf/-char/ja) &lt;br&gt; （日本食品微生物学会雑誌, 23 (4), 217-222, 2006）</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2004-2007</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>**神戸大学** &lt;br&gt; [市販ミンチ肉における黄色ブドウ球菌汚染調査と分離株の性状](https://www.jstage.jst.go.jp/article/jsfm1994/23/4/23_4_217/_pdf/-char/ja) &lt;br&gt; （日本食品微生物学会雑誌, 23 (4), 217-222, 2006）</t>
+          <t>**日本獣医生命科学大学** &lt;br&gt; [Sequence-Based Characterization of _Listeria monocytogenes_ Strains Isolated from Domestic Retail Meat in the Tokyo Metropolitan Area of Japan](https://www.jstage.jst.go.jp/article/yoken/71/5/71_JJID.2017.582/_pdf/-char/en)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2004-2007</t>
+          <t>2004-2006</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>**日本獣医生命科学大学** &lt;br&gt; [Sequence-Based Characterization of _Listeria monocytogenes_ Strains Isolated from Domestic Retail Meat in the Tokyo Metropolitan Area of Japan](https://www.jstage.jst.go.jp/article/yoken/71/5/71_JJID.2017.582/_pdf/-char/en)</t>
+          <t>**静岡県環境衛生科学研究所** &lt;br&gt; [Antibiotic Resistance in Bacterial Pathogens from Retail Raw Meats and Food-Producing Animals in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23039777?via%3Dihub) &lt;br&gt; (Journal of Food Protection, Volume 75, Issue 10, 1 October 2012, Pages 1774-1782)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>未登録 &lt;br&gt; （食中毒発生に伴う検査のため登録保留）</t>
         </is>
       </c>
     </row>

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>未登録 &lt;br&gt; （食中毒発生に伴う検査のため登録保留）</t>
+          <t>未登録 &lt;br&gt; （登録保留）</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -1490,7 +1490,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>不明</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1507,7 +1507,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>不明</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -1201,7 +1201,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>**帯広畜産大学** &lt;br&gt; [Isolation and characterization of _Listeria monocytogenes_ from commercial asazuke (Japanese light pickles)](https://www.sciencedirect.com/science/article/pii/S0168160510001686?via%3Dihub)</t>
+          <t>**帯広畜産大学** &lt;br&gt; [Isolation and characterization of _Listeria monocytogenes_ from commercial asazuke (Japanese light pickles)](https://www.sciencedirect.com/science/article/pii/S0168160510001686?via%3Dihub) &lt;br&gt; (International Journal of Food Microbiology, Volume 139, Issue 3, 15 May 2010, Pages 134-139)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>**日本獣医生命科学大学** &lt;br&gt; [Isolation of _Listeria monocytogenes_ from the Skin of Slaughtered Beef Cattle](https://agriknowledge.affrc.go.jp/RN/2030760055.pdf)</t>
+          <t>**日本獣医生命科学大学** &lt;br&gt; [Isolation of _Listeria monocytogenes_ from the Skin of Slaughtered Beef Cattle](https://agriknowledge.affrc.go.jp/RN/2030760055.pdf) &lt;br&gt; (The Journal of Veterinary Medical Science, 69(10): 1077-1079，2007)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf) &lt;br&gt;（東京健康安全研究センター年報, 55, 2004）</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [Prevalence and contamination levels of _Listeria monocytogenes_ in ready-to-eat foods in Tokyo, Japan](https://www.jstage.jst.go.jp/article/jvms/78/7/78_15-0708/_pdf/-char/ja) &lt;br&gt; (Jarnal o Veterinary Medical Science (JVMS), 2016)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [Prevalence and contamination levels of _Listeria monocytogenes_ in ready-to-eat foods in Tokyo, Japan](https://www.jstage.jst.go.jp/article/jvms/78/7/78_15-0708/_pdf/-char/ja) &lt;br&gt; (Jarnal of Veterinary Medical Science (JVMS), 2016)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[The Occurrence of Listeria monocytogenes in Imported Ready-to-Eat Foods in Japan](https://www.jstage.jst.go.jp/article/jvms/74/3/74_11-0262/_pdf/-char/en) &lt;br&gt; (Journal of Veterinary Medical Science, 2012, Volume 74, Issue 3, Pages 373-375)</t>
+          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[The Occurrence of Listeria monocytogenes in Imported Ready-to-Eat Foods in Japan](https://www.jstage.jst.go.jp/article/jvms/74/3/74_11-0262/_pdf/-char/en)（[訂正](https://www.jstage.jst.go.jp/article/jvms/75/2/75_11-0262e/_article/-char/ja)） &lt;br&gt; (Journal of Veterinary Medical Science, 2012, Volume 74, Issue 3, Pages 373-375)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1286,12 +1286,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>**宮城県保健環境センター** &lt;br&gt; [_Listeria monocytogenes_ による ready-to-eat 食品の汚染実態](https://www.pref.miyagi.jp/documents/1979/210526.pdf) &lt;br&gt;（宮城県保健環境センター年報　第 25 号　2007）</t>
+          <t>**神戸大学** &lt;br&gt; [市販ミンチ肉における黄色ブドウ球菌汚染調査と分離株の性状](https://www.jstage.jst.go.jp/article/jsfm1994/23/4/23_4_217/_pdf/-char/ja) &lt;br&gt; （日本食品微生物学会雑誌, 23 (4), 217-222, 2006）</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1303,12 +1303,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2004-2007</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>**神戸大学** &lt;br&gt; [市販ミンチ肉における黄色ブドウ球菌汚染調査と分離株の性状](https://www.jstage.jst.go.jp/article/jsfm1994/23/4/23_4_217/_pdf/-char/ja) &lt;br&gt; （日本食品微生物学会雑誌, 23 (4), 217-222, 2006）</t>
+          <t>**日本獣医生命科学大学** &lt;br&gt; [Sequence-Based Characterization of _Listeria monocytogenes_ Strains Isolated from Domestic Retail Meat in the Tokyo Metropolitan Area of Japan](https://www.jstage.jst.go.jp/article/yoken/71/5/71_JJID.2017.582/_pdf/-char/en)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1320,12 +1320,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2004-2007</t>
+          <t>2004-2006</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>**日本獣医生命科学大学** &lt;br&gt; [Sequence-Based Characterization of _Listeria monocytogenes_ Strains Isolated from Domestic Retail Meat in the Tokyo Metropolitan Area of Japan](https://www.jstage.jst.go.jp/article/yoken/71/5/71_JJID.2017.582/_pdf/-char/en)</t>
+          <t>**静岡県環境衛生科学研究所** &lt;br&gt; [Antibiotic Resistance in Bacterial Pathogens from Retail Raw Meats and Food-Producing Animals in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23039777?via%3Dihub) &lt;br&gt; (Journal of Food Protection, Volume 75, Issue 10, 1 October 2012, Pages 1774-1782)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1337,12 +1337,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2004-2006</t>
+          <t>2002-2004</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>**静岡県環境衛生科学研究所** &lt;br&gt; [Antibiotic Resistance in Bacterial Pathogens from Retail Raw Meats and Food-Producing Animals in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23039777?via%3Dihub) &lt;br&gt; (Journal of Food Protection, Volume 75, Issue 10, 1 October 2012, Pages 1774-1782)</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [漬け物製造施設における _Listeria monocytogenes_ の汚染実態について](https://www.pref.saitama.lg.jp/documents/231581/no39h17-2_p94~191.pdf) &lt;br&gt;（埼玉県衛生研究所年報 2005 Vol.39 p151-153）</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1354,12 +1354,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2002-2004</t>
+          <t>2002-2003</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [漬け物製造施設における _Listeria monocytogenes_ の汚染実態について](https://www.pref.saitama.lg.jp/documents/231581/no39h17-2_p94~191.pdf) &lt;br&gt;（埼玉県衛生研究所年報 2005 Vol.39 p151-153）</t>
+          <t>**東京海洋大学** &lt;br&gt; [Incidence of _Listeria monocytogenes_ in Raw Seafood Products in Japanese Retail Stores](https://www.sciencedirect.com/science/article/pii/S0362028X22009371/pdf?md5=a3083f06f33e1de915e2df49fbcf05af&amp;pid=1-s2.0-S0362028X22009371-main.pdf)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1371,12 +1371,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2002-2003</t>
+          <t>2001-2002</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>**東京海洋大学** &lt;br&gt; [Incidence of _Listeria monocytogenes_ in Raw Seafood Products in Japanese Retail Stores](https://www.sciencedirect.com/science/article/pii/S0362028X22009371/pdf?md5=a3083f06f33e1de915e2df49fbcf05af&amp;pid=1-s2.0-S0362028X22009371-main.pdf)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立国会図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1388,12 +1388,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2001-2002</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立国会図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
+          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1405,12 +1405,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2000-2015</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [食品からの _Listeria monocytogenes_ 検出法および定量法の比較](https://www.jstage.jst.go.jp/article/jsfm/33/3/33_155/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌、2016）</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1422,12 +1422,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2000-2015</t>
+          <t>2000-2012</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [食品からの _Listeria monocytogenes_ 検出法および定量法の比較](https://www.jstage.jst.go.jp/article/jsfm/33/3/33_155/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌、2016）</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [Prevalence and contamination levels of _Listeria monocytogenes_ in ready-to-eat foods in Tokyo, Japan](https://www.jstage.jst.go.jp/article/jvms/78/7/78_15-0708/_pdf/-char/ja) &lt;br&gt; (Jarnal of Veterinary Medical Science (JVMS), 2016)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1439,12 +1439,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2000-2012</t>
+          <t>2000-2002</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [Prevalence and contamination levels of _Listeria monocytogenes_ in ready-to-eat foods in Tokyo, Japan](https://www.jstage.jst.go.jp/article/jvms/78/7/78_15-0708/_pdf/-char/ja) &lt;br&gt; (Jarnal of Veterinary Medical Science (JVMS), 2016)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf) &lt;br&gt;（東京健康安全研究センター年報, 55, 2004）</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1456,29 +1456,29 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2000-2002</t>
+          <t>1999-2001</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf) &lt;br&gt;（東京健康安全研究センター年報, 55, 2004）</t>
+          <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93）</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1999-2001</t>
+          <t>不明</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93）</t>
+          <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1495,27 +1495,10 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; インターネット販売食品の衛生学的実態調査 &lt;br&gt;（食品衛生研究, 65-70, 56(1), 2006）&lt;br&gt; 国立国会図書館に所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R100000002-I000000011637-i5462925)）</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
-        <is>
-          <t>未登録</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>不明</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; インターネット販売食品の衛生学的実態調査 &lt;br&gt;（食品衛生研究, 65-70, 56(1), 2006）&lt;br&gt; 国立国会図書館に所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R100000002-I000000011637-i5462925)）</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>済</t>
         </is>

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -1269,12 +1269,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2006-2007</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>**宮城県保健環境センター** &lt;br&gt; [芽物野菜等の食中毒菌汚染実態調査](https://www.pref.miyagi.jp/documents/1943/617283.pdf) &lt;br&gt; （宮城県保健環境センター年報　第26号, p.103-104,　2008）</t>
+          <t>**宮城県保健環境センター** &lt;br&gt; [_Listeria monocytogenes_ による ready-to-eat 食品の汚染実態](https://www.pref.miyagi.jp/documents/1979/210526.pdf) &lt;br&gt;（宮城県保健環境センター年報　第 25 号　2007）</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93）</t>
+          <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93） &lt;br&gt; web上に公開されていない</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）</t>
+          <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）  &lt;br&gt; web上に公開されていない</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -861,17 +861,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2011-2014</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>**島根県保健環境科学研究所** &lt;br&gt; [ウズラ卵が原因食品と推定された _Salmonella enterica_ serovar 4，［5］，12：i：一による食中毒の発生とウズラ卵のサルモネラ汚染状況調査](https://mol.medicalonline.jp/library/journal/download?GoodsID=ee5jsofm/2016/003303/012&amp;name=0160-0165j&amp;UserID=133.50.190.185&amp;base=jamas_pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [各処理日の 1 番目・2 番目に処理されるブロイラー鶏群から製造された鶏肉のリステリア・モノサイトジェネス汚染状況の比較調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>未登録 &lt;br&gt; （登録保留）</t>
+          <t>済</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [各処理日の 1 番目・2 番目に処理されるブロイラー鶏群から製造された鶏肉のリステリア・モノサイトジェネス汚染状況の比較調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のカンピロバクター汚染の季節変化調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のカンピロバクター汚染の季節変化調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のサルモネラ汚染の季節変化調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のサルモネラ汚染の季節変化調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [豚の肝臓のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/cam/02.html#24121)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [豚の肝臓のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/cam/02.html#24121)</t>
+          <t>**農林水産省** &lt;br&gt; [豚の肝臓のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/sal/02.html#24221)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [豚の肝臓のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/sal/02.html#24221)</t>
+          <t>**農林水産省** &lt;br&gt; [豚の肝臓のリステリア・モノサイトジェネス汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/lis/02.html#24321)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -963,12 +963,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010-2013</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [豚の肝臓のリステリア・モノサイトジェネス汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/lis/02.html#24321)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [東京都内に流通する牛内臓肉からの糞便系大腸菌群，ベロ毒素産生性大腸菌，_Campylobacter jejuni_/_coli_, _Salmonella_ および _Listeria monocytogenes_ 検出状況](https://www.jstage.jst.go.jp/article/jsfm/32/4/32_209/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌　2015）</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -980,12 +980,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2010-2013</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [東京都内に流通する牛内臓肉からの糞便系大腸菌群，ベロ毒素産生性大腸菌，_Campylobacter jejuni_/_coli_, _Salmonella_ および _Listeria monocytogenes_ 検出状況](https://www.jstage.jst.go.jp/article/jsfm/32/4/32_209/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌　2015）</t>
+          <t>**農林水産省** &lt;br&gt; [Prevalence and Characterization of Foodborne Pathogens in Dairy Cattle in the Eastern Part of Japan](https://www.jstage.jst.go.jp/article/jvms/75/4/75_12-0327/_pdf/-char/ja) &lt;br&gt; （Journal of Veterinary Medical Science 2013）</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [Prevalence and Characterization of Foodborne Pathogens in Dairy Cattle in the Eastern Part of Japan](https://www.jstage.jst.go.jp/article/jvms/75/4/75_12-0327/_pdf/-char/ja) &lt;br&gt; （Journal of Veterinary Medical Science 2013）</t>
+          <t>**農林水産省** &lt;br&gt; [出荷前後のブロイラー鶏群のカンピロバクター保有状況と、製造された鶏肉のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku_cam_14.html)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [出荷前後のブロイラー鶏群のカンピロバクター保有状況と、製造された鶏肉のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku_cam_14.html)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のカンピロバクター濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のカンピロバクター濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のサルモネラ濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のサルモネラ濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [採卵鶏農場のサルモネラ保有状況・鶏卵のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt;  - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiran/keiran_sal_03.html#22113)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [採卵鶏農場のサルモネラ保有状況・鶏卵のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt;  - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiran/keiran_sal_03.html#22113)</t>
+          <t>**福岡県保健環境研究所** &lt;br&gt; [平成22年度食品の食中毒菌汚染実態調査](https://www.fihes.pref.fukuoka.jp/nenpoh/np38/pdf/np38report1.pdf) &lt;br&gt; （福岡県保健環境研究所年報第38号, 66-67, 2011）</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1082,12 +1082,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>**福岡県保健環境研究所** &lt;br&gt; [平成22年度食品の食中毒菌汚染実態調査](https://www.fihes.pref.fukuoka.jp/nenpoh/np38/pdf/np38report1.pdf) &lt;br&gt; （福岡県保健環境研究所年報第38号, 66-67, 2011）</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt; - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku_cam_06.html)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt; - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku_cam_06.html)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[_Campylobacter_ contamination in retail poultry meats and by-products in Japan: A literature survey](https://www.sciencedirect.com/science/article/pii/S0956713508002247) &lt;br&gt; (Food Control, Volume 20, Issue 6, June 2009, Pages 531-537)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
@@ -1138,24 +1138,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[_Campylobacter_ contamination in retail poultry meats and by-products in Japan: A literature survey](https://www.sciencedirect.com/science/article/pii/S0956713508002247) &lt;br&gt; (Food Control, Volume 20, Issue 6, June 2009, Pages 531-537)</t>
+          <t>**天使大学** &lt;br&gt; [Prevalence and Characteristics of _Listeria monocytogenes_ in Bovine Colostrum in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23052547)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2008-2018</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>**天使大学** &lt;br&gt; [Prevalence and Characteristics of _Listeria monocytogenes_ in Bovine Colostrum in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23052547)</t>
+          <t>**厚生労働省** &lt;br&gt; [食品中の食中毒菌汚染実態調査](https://www.mhlw.go.jp/stf/seisakunitsuite/bunya/kenkou_iryou/shokuhin/syokuchu/01.html)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1167,12 +1167,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2008-2018</t>
+          <t>2007-2008</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>**厚生労働省** &lt;br&gt; [食品中の食中毒菌汚染実態調査](https://www.mhlw.go.jp/stf/seisakunitsuite/bunya/kenkou_iryou/shokuhin/syokuchu/01.html)</t>
+          <t>**農林水産省** &lt;br&gt; [生食用野菜における腸管出血性大腸菌及びサルモネラの実態調査](https://www.maff.go.jp/j/syouan/nouan/kome/k_yasai/pdf/press.pdf)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1184,12 +1184,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2007-2008</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [生食用野菜における腸管出血性大腸菌及びサルモネラの実態調査](https://www.maff.go.jp/j/syouan/nouan/kome/k_yasai/pdf/press.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [市販鶏卵のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt; - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiran/keiran_sal_04.html#22121)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1201,12 +1201,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [市販鶏卵のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt; - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiran/keiran_sal_04.html#22121)</t>
+          <t>**帯広畜産大学** &lt;br&gt; [Isolation and characterization of _Listeria monocytogenes_ from commercial asazuke (Japanese light pickles)](https://www.sciencedirect.com/science/article/pii/S0168160510001686?via%3Dihub) &lt;br&gt; (International Journal of Food Microbiology, Volume 139, Issue 3, 15 May 2010, Pages 134-139)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>**帯広畜産大学** &lt;br&gt; [Isolation and characterization of _Listeria monocytogenes_ from commercial asazuke (Japanese light pickles)](https://www.sciencedirect.com/science/article/pii/S0168160510001686?via%3Dihub) &lt;br&gt; (International Journal of Food Microbiology, Volume 139, Issue 3, 15 May 2010, Pages 134-139)</t>
+          <t>**日本獣医生命科学大学** &lt;br&gt; [Isolation of _Listeria monocytogenes_ from the Skin of Slaughtered Beef Cattle](https://agriknowledge.affrc.go.jp/RN/2030760055.pdf) &lt;br&gt; (The Journal of Veterinary Medical Science, 69(10): 1077-1079，2007)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1235,12 +1235,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2006-2008</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>**日本獣医生命科学大学** &lt;br&gt; [Isolation of _Listeria monocytogenes_ from the Skin of Slaughtered Beef Cattle](https://agriknowledge.affrc.go.jp/RN/2030760055.pdf) &lt;br&gt; (The Journal of Veterinary Medical Science, 69(10): 1077-1079，2007)</t>
+          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[The Occurrence of Listeria monocytogenes in Imported Ready-to-Eat Foods in Japan](https://www.jstage.jst.go.jp/article/jvms/74/3/74_11-0262/_pdf/-char/en)（[訂正](https://www.jstage.jst.go.jp/article/jvms/75/2/75_11-0262e/_article/-char/ja)） &lt;br&gt; (Journal of Veterinary Medical Science, 2012, Volume 74, Issue 3, Pages 373-375)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1252,12 +1252,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2006-2008</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[The Occurrence of Listeria monocytogenes in Imported Ready-to-Eat Foods in Japan](https://www.jstage.jst.go.jp/article/jvms/74/3/74_11-0262/_pdf/-char/en)（[訂正](https://www.jstage.jst.go.jp/article/jvms/75/2/75_11-0262e/_article/-char/ja)） &lt;br&gt; (Journal of Veterinary Medical Science, 2012, Volume 74, Issue 3, Pages 373-375)</t>
+          <t>**宮城県保健環境センター** &lt;br&gt; [_Listeria monocytogenes_ による ready-to-eat 食品の汚染実態](https://www.pref.miyagi.jp/documents/1979/210526.pdf) &lt;br&gt;（宮城県保健環境センター年報　第 25 号　2007）</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1269,12 +1269,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>**宮城県保健環境センター** &lt;br&gt; [_Listeria monocytogenes_ による ready-to-eat 食品の汚染実態](https://www.pref.miyagi.jp/documents/1979/210526.pdf) &lt;br&gt;（宮城県保健環境センター年報　第 25 号　2007）</t>
+          <t>**神戸大学** &lt;br&gt; [市販ミンチ肉における黄色ブドウ球菌汚染調査と分離株の性状](https://www.jstage.jst.go.jp/article/jsfm1994/23/4/23_4_217/_pdf/-char/ja) &lt;br&gt; （日本食品微生物学会雑誌, 23 (4), 217-222, 2006）</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1286,12 +1286,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2004-2007</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>**神戸大学** &lt;br&gt; [市販ミンチ肉における黄色ブドウ球菌汚染調査と分離株の性状](https://www.jstage.jst.go.jp/article/jsfm1994/23/4/23_4_217/_pdf/-char/ja) &lt;br&gt; （日本食品微生物学会雑誌, 23 (4), 217-222, 2006）</t>
+          <t>**日本獣医生命科学大学** &lt;br&gt; [Sequence-Based Characterization of _Listeria monocytogenes_ Strains Isolated from Domestic Retail Meat in the Tokyo Metropolitan Area of Japan](https://www.jstage.jst.go.jp/article/yoken/71/5/71_JJID.2017.582/_pdf/-char/en)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1303,12 +1303,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2004-2007</t>
+          <t>2004-2006</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>**日本獣医生命科学大学** &lt;br&gt; [Sequence-Based Characterization of _Listeria monocytogenes_ Strains Isolated from Domestic Retail Meat in the Tokyo Metropolitan Area of Japan](https://www.jstage.jst.go.jp/article/yoken/71/5/71_JJID.2017.582/_pdf/-char/en)</t>
+          <t>**静岡県環境衛生科学研究所** &lt;br&gt; [Antibiotic Resistance in Bacterial Pathogens from Retail Raw Meats and Food-Producing Animals in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23039777?via%3Dihub) &lt;br&gt; (Journal of Food Protection, Volume 75, Issue 10, 1 October 2012, Pages 1774-1782)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1320,12 +1320,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2004-2006</t>
+          <t>2002-2004</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>**静岡県環境衛生科学研究所** &lt;br&gt; [Antibiotic Resistance in Bacterial Pathogens from Retail Raw Meats and Food-Producing Animals in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23039777?via%3Dihub) &lt;br&gt; (Journal of Food Protection, Volume 75, Issue 10, 1 October 2012, Pages 1774-1782)</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [漬け物製造施設における _Listeria monocytogenes_ の汚染実態について](https://www.pref.saitama.lg.jp/documents/231581/no39h17-2_p94~191.pdf) &lt;br&gt;（埼玉県衛生研究所年報 2005 Vol.39 p151-153）</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1337,12 +1337,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2002-2004</t>
+          <t>2002-2003</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [漬け物製造施設における _Listeria monocytogenes_ の汚染実態について](https://www.pref.saitama.lg.jp/documents/231581/no39h17-2_p94~191.pdf) &lt;br&gt;（埼玉県衛生研究所年報 2005 Vol.39 p151-153）</t>
+          <t>**東京海洋大学** &lt;br&gt; [Incidence of _Listeria monocytogenes_ in Raw Seafood Products in Japanese Retail Stores](https://www.sciencedirect.com/science/article/pii/S0362028X22009371/pdf?md5=a3083f06f33e1de915e2df49fbcf05af&amp;pid=1-s2.0-S0362028X22009371-main.pdf)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1354,12 +1354,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2002-2003</t>
+          <t>2001-2002</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>**東京海洋大学** &lt;br&gt; [Incidence of _Listeria monocytogenes_ in Raw Seafood Products in Japanese Retail Stores](https://www.sciencedirect.com/science/article/pii/S0362028X22009371/pdf?md5=a3083f06f33e1de915e2df49fbcf05af&amp;pid=1-s2.0-S0362028X22009371-main.pdf)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立国会図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1371,12 +1371,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2001-2002</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立国会図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
+          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1388,12 +1388,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2000-2015</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [食品からの _Listeria monocytogenes_ 検出法および定量法の比較](https://www.jstage.jst.go.jp/article/jsfm/33/3/33_155/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌、2016）</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1405,12 +1405,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2000-2015</t>
+          <t>2000-2012</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [食品からの _Listeria monocytogenes_ 検出法および定量法の比較](https://www.jstage.jst.go.jp/article/jsfm/33/3/33_155/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌、2016）</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [Prevalence and contamination levels of _Listeria monocytogenes_ in ready-to-eat foods in Tokyo, Japan](https://www.jstage.jst.go.jp/article/jvms/78/7/78_15-0708/_pdf/-char/ja) &lt;br&gt; (Jarnal of Veterinary Medical Science (JVMS), 2016)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1422,12 +1422,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2000-2012</t>
+          <t>2000-2002</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [Prevalence and contamination levels of _Listeria monocytogenes_ in ready-to-eat foods in Tokyo, Japan](https://www.jstage.jst.go.jp/article/jvms/78/7/78_15-0708/_pdf/-char/ja) &lt;br&gt; (Jarnal of Veterinary Medical Science (JVMS), 2016)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf) &lt;br&gt;（東京健康安全研究センター年報, 55, 2004）</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1439,29 +1439,29 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2000-2002</t>
+          <t>1999-2001</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf) &lt;br&gt;（東京健康安全研究センター年報, 55, 2004）</t>
+          <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93） &lt;br&gt; web上に公開されていない</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1999-2001</t>
+          <t>不明</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93） &lt;br&gt; web上に公開されていない</t>
+          <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）  &lt;br&gt; web上に公開されていない</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1478,27 +1478,10 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）  &lt;br&gt; web上に公開されていない</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; インターネット販売食品の衛生学的実態調査 &lt;br&gt;（食品衛生研究, 65-70, 56(1), 2006）&lt;br&gt; 国立国会図書館に所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R100000002-I000000011637-i5462925)）</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
-        <is>
-          <t>未登録</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>不明</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; インターネット販売食品の衛生学的実態調査 &lt;br&gt;（食品衛生研究, 65-70, 56(1), 2006）&lt;br&gt; 国立国会図書館に所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R100000002-I000000011637-i5462925)）</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
         <is>
           <t>済</t>
         </is>

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1286,12 +1286,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2004-2007</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>**日本獣医生命科学大学** &lt;br&gt; [Sequence-Based Characterization of _Listeria monocytogenes_ Strains Isolated from Domestic Retail Meat in the Tokyo Metropolitan Area of Japan](https://www.jstage.jst.go.jp/article/yoken/71/5/71_JJID.2017.582/_pdf/-char/en)</t>
+          <t>**京都市衛生公害研究所** &lt;br&gt; [市販ナチュラルチーズからのリステリア菌の検出](https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000118/118277/o-5.pdf)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1303,12 +1303,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2004-2006</t>
+          <t>2004-2007</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>**静岡県環境衛生科学研究所** &lt;br&gt; [Antibiotic Resistance in Bacterial Pathogens from Retail Raw Meats and Food-Producing Animals in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23039777?via%3Dihub) &lt;br&gt; (Journal of Food Protection, Volume 75, Issue 10, 1 October 2012, Pages 1774-1782)</t>
+          <t>**日本獣医生命科学大学** &lt;br&gt; [Sequence-Based Characterization of _Listeria monocytogenes_ Strains Isolated from Domestic Retail Meat in the Tokyo Metropolitan Area of Japan](https://www.jstage.jst.go.jp/article/yoken/71/5/71_JJID.2017.582/_pdf/-char/en)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1320,12 +1320,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2002-2004</t>
+          <t>2004-2006</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [漬け物製造施設における _Listeria monocytogenes_ の汚染実態について](https://www.pref.saitama.lg.jp/documents/231581/no39h17-2_p94~191.pdf) &lt;br&gt;（埼玉県衛生研究所年報 2005 Vol.39 p151-153）</t>
+          <t>**静岡県環境衛生科学研究所** &lt;br&gt; [Antibiotic Resistance in Bacterial Pathogens from Retail Raw Meats and Food-Producing Animals in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23039777?via%3Dihub) &lt;br&gt; (Journal of Food Protection, Volume 75, Issue 10, 1 October 2012, Pages 1774-1782)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1337,12 +1337,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2002-2003</t>
+          <t>2002-2004</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>**東京海洋大学** &lt;br&gt; [Incidence of _Listeria monocytogenes_ in Raw Seafood Products in Japanese Retail Stores](https://www.sciencedirect.com/science/article/pii/S0362028X22009371/pdf?md5=a3083f06f33e1de915e2df49fbcf05af&amp;pid=1-s2.0-S0362028X22009371-main.pdf)</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [漬け物製造施設における _Listeria monocytogenes_ の汚染実態について](https://www.pref.saitama.lg.jp/documents/231581/no39h17-2_p94~191.pdf) &lt;br&gt;（埼玉県衛生研究所年報 2005 Vol.39 p151-153）</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1354,12 +1354,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2001-2002</t>
+          <t>2002-2003</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立国会図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
+          <t>**東京海洋大学** &lt;br&gt; [Incidence of _Listeria monocytogenes_ in Raw Seafood Products in Japanese Retail Stores](https://www.sciencedirect.com/science/article/pii/S0362028X22009371/pdf?md5=a3083f06f33e1de915e2df49fbcf05af&amp;pid=1-s2.0-S0362028X22009371-main.pdf)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1371,12 +1371,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2001-2002</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立国会図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1388,12 +1388,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2000-2015</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [食品からの _Listeria monocytogenes_ 検出法および定量法の比較](https://www.jstage.jst.go.jp/article/jsfm/33/3/33_155/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌、2016）</t>
+          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1405,29 +1405,29 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2000-2012</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [Prevalence and contamination levels of _Listeria monocytogenes_ in ready-to-eat foods in Tokyo, Japan](https://www.jstage.jst.go.jp/article/jvms/78/7/78_15-0708/_pdf/-char/ja) &lt;br&gt; (Jarnal of Veterinary Medical Science (JVMS), 2016)</t>
+          <t>**神戸市環境保健研究所** &lt;br&gt; [市販の輸入生野菜および果物における病原菌汚染の実態調査](https://www.jstage.jst.go.jp/article/jsfm1994/19/2/19_2_71/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌, 19(2), 71-75, 2002）</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2000-2002</t>
+          <t>2000-2015</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf) &lt;br&gt;（東京健康安全研究センター年報, 55, 2004）</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [食品からの _Listeria monocytogenes_ 検出法および定量法の比較](https://www.jstage.jst.go.jp/article/jsfm/33/3/33_155/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌、2016）</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1439,49 +1439,83 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1999-2001</t>
+          <t>2000-2012</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93） &lt;br&gt; web上に公開されていない</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [Prevalence and contamination levels of _Listeria monocytogenes_ in ready-to-eat foods in Tokyo, Japan](https://www.jstage.jst.go.jp/article/jvms/78/7/78_15-0708/_pdf/-char/ja) &lt;br&gt; (Jarnal of Veterinary Medical Science (JVMS), 2016)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>不明</t>
+          <t>2000-2002</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）  &lt;br&gt; web上に公開されていない</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf) &lt;br&gt;（東京健康安全研究センター年報, 55, 2004）</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>1999-2001</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93） &lt;br&gt; web上に公開されていない</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>未登録</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
           <t>不明</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）  &lt;br&gt; web上に公開されていない</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>未登録</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>不明</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>**東京都健康安全研究センター** &lt;br&gt; インターネット販売食品の衛生学的実態調査 &lt;br&gt;（食品衛生研究, 65-70, 56(1), 2006）&lt;br&gt; 国立国会図書館に所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R100000002-I000000011637-i5462925)）</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>済</t>
         </is>

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>**大阪健康安全基盤研究所** &lt;br&gt; Ready-to-eat 食品製造環境のリステリア汚染状況と食品の特性に応じた汚染制御についての考察 &lt;br&gt; （[大阪健康安全基盤研究所研究年報, p.107, 2020](http://www.iph.osaka.jp/s004/060/reserch_annual_report-7_2023.pdf) / 月刊 HACCP, 10, 20-25 (2022)）&lt;br&gt; 検査内容不明</t>
+          <t>**大阪健康安全基盤研究所** &lt;br&gt; Ready-to-eat 食品製造環境のリステリア汚染状況と食品の特性に応じた汚染制御についての考察 &lt;br&gt; （[大阪健康安全基盤研究所研究年報, p.107, 2020](http://www.iph.osaka.jp/s004/060/reserch_annual_report-7_2023.pdf) / 月刊 HACCP, 10, 20-25 (2022)）&lt;br&gt; 検査内容不明のため未登録</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
@@ -1337,29 +1337,29 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2002-2004</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [漬け物製造施設における _Listeria monocytogenes_ の汚染実態について](https://www.pref.saitama.lg.jp/documents/231581/no39h17-2_p94~191.pdf) &lt;br&gt;（埼玉県衛生研究所年報 2005 Vol.39 p151-153）</t>
+          <t>**広島市衛生研究所** &lt;br&gt; [鶏肉のカンピロバクター培養検査法の検討 -鶏肉の検査方法別検出感度および検出率の比較]() &lt;br&gt;（広島市衛研年報 24, 49-54, 2005）</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2002-2003</t>
+          <t>2002-2004</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>**東京海洋大学** &lt;br&gt; [Incidence of _Listeria monocytogenes_ in Raw Seafood Products in Japanese Retail Stores](https://www.sciencedirect.com/science/article/pii/S0362028X22009371/pdf?md5=a3083f06f33e1de915e2df49fbcf05af&amp;pid=1-s2.0-S0362028X22009371-main.pdf)</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [漬け物製造施設における _Listeria monocytogenes_ の汚染実態について](https://www.pref.saitama.lg.jp/documents/231581/no39h17-2_p94~191.pdf) &lt;br&gt;（埼玉県衛生研究所年報 2005 Vol.39 p151-153）</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1371,12 +1371,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2001-2002</t>
+          <t>2002-2003</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立国会図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
+          <t>**東京海洋大学** &lt;br&gt; [Incidence of _Listeria monocytogenes_ in Raw Seafood Products in Japanese Retail Stores](https://www.sciencedirect.com/science/article/pii/S0362028X22009371/pdf?md5=a3083f06f33e1de915e2df49fbcf05af&amp;pid=1-s2.0-S0362028X22009371-main.pdf)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1388,12 +1388,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2001-2002</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立国会図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1410,24 +1410,24 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>**神戸市環境保健研究所** &lt;br&gt; [市販の輸入生野菜および果物における病原菌汚染の実態調査](https://www.jstage.jst.go.jp/article/jsfm1994/19/2/19_2_71/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌, 19(2), 71-75, 2002）</t>
+          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2000-2015</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [食品からの _Listeria monocytogenes_ 検出法および定量法の比較](https://www.jstage.jst.go.jp/article/jsfm/33/3/33_155/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌、2016）</t>
+          <t>**神戸市環境保健研究所** &lt;br&gt; [市販の輸入生野菜および果物における病原菌汚染の実態調査](https://www.jstage.jst.go.jp/article/jsfm1994/19/2/19_2_71/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌, 19(2), 71-75, 2002）</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1439,12 +1439,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2000-2012</t>
+          <t>2000-2015</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [Prevalence and contamination levels of _Listeria monocytogenes_ in ready-to-eat foods in Tokyo, Japan](https://www.jstage.jst.go.jp/article/jvms/78/7/78_15-0708/_pdf/-char/ja) &lt;br&gt; (Jarnal of Veterinary Medical Science (JVMS), 2016)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [食品からの _Listeria monocytogenes_ 検出法および定量法の比較](https://www.jstage.jst.go.jp/article/jsfm/33/3/33_155/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌、2016）</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1456,12 +1456,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2000-2002</t>
+          <t>2000-2012</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf) &lt;br&gt;（東京健康安全研究センター年報, 55, 2004）</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [Prevalence and contamination levels of _Listeria monocytogenes_ in ready-to-eat foods in Tokyo, Japan](https://www.jstage.jst.go.jp/article/jvms/78/7/78_15-0708/_pdf/-char/ja) &lt;br&gt; (Jarnal of Veterinary Medical Science (JVMS), 2016)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1473,29 +1473,29 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1999-2001</t>
+          <t>2000-2002</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93） &lt;br&gt; web上に公開されていない</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf) &lt;br&gt;（東京健康安全研究センター年報, 55, 2004）</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>不明</t>
+          <t>1999-2001</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）  &lt;br&gt; web上に公開されていない</t>
+          <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93） &lt;br&gt; web上に公開されていない</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1512,10 +1512,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）  &lt;br&gt; web上に公開されていない</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>未登録</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>不明</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
           <t>**東京都健康安全研究センター** &lt;br&gt; インターネット販売食品の衛生学的実態調査 &lt;br&gt;（食品衛生研究, 65-70, 56(1), 2006）&lt;br&gt; 国立国会図書館に所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R100000002-I000000011637-i5462925)）</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>済</t>
         </is>

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>**福岡県保健環境研究所** &lt;br&gt; [平成24年度食品の食中毒菌汚染実態調査](https://www.fihes.pref.fukuoka.jp/nenpoh/np40/pdf/np40report3.pdf) &lt;br&gt; （福岡県保健環境研究所年報第40号, 116-118, 2013）</t>
+          <t>**神奈川県衛生研究所** &lt;br&gt; [Prevalence and Characteristics of _Salmonella_ and _Campylobacter_ in Retail Poultry Meat in Japan](https://www.jstage.jst.go.jp/article/yoken/70/3/70_JJID.2016.164/_pdf/-char/en) &lt;br&gt; (Japanese Journal of Infectious Diseases, 70, 239-247, 2017)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -844,12 +844,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>**神奈川県衛生研究所** &lt;br&gt; [Prevalence and Characteristics of _Salmonella_ and _Campylobacter_ in Retail Poultry Meat in Japan](https://www.jstage.jst.go.jp/article/yoken/70/3/70_JJID.2016.164/_pdf/-char/en) &lt;br&gt; (Japanese Journal of Infectious Diseases, 70, 239-247, 2017)</t>
+          <t>**農林水産省** &lt;br&gt; [各処理日の 1 番目・2 番目に処理されるブロイラー鶏群から製造された鶏肉のリステリア・モノサイトジェネス汚染状況の比較調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [各処理日の 1 番目・2 番目に処理されるブロイラー鶏群から製造された鶏肉のリステリア・モノサイトジェネス汚染状況の比較調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のカンピロバクター汚染の季節変化調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のカンピロバクター汚染の季節変化調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のサルモネラ汚染の季節変化調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のサルモネラ汚染の季節変化調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [豚の肝臓のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/cam/02.html#24121)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [豚の肝臓のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/cam/02.html#24121)</t>
+          <t>**農林水産省** &lt;br&gt; [豚の肝臓のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/sal/02.html#24221)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [豚の肝臓のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/sal/02.html#24221)</t>
+          <t>**農林水産省** &lt;br&gt; [豚の肝臓のリステリア・モノサイトジェネス汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/lis/02.html#24321)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -946,12 +946,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010-2013</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [豚の肝臓のリステリア・モノサイトジェネス汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/butaniku/lis/02.html#24321)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [東京都内に流通する牛内臓肉からの糞便系大腸菌群，ベロ毒素産生性大腸菌，_Campylobacter jejuni_/_coli_, _Salmonella_ および _Listeria monocytogenes_ 検出状況](https://www.jstage.jst.go.jp/article/jsfm/32/4/32_209/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌　2015）</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -963,12 +963,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2010-2013</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [東京都内に流通する牛内臓肉からの糞便系大腸菌群，ベロ毒素産生性大腸菌，_Campylobacter jejuni_/_coli_, _Salmonella_ および _Listeria monocytogenes_ 検出状況](https://www.jstage.jst.go.jp/article/jsfm/32/4/32_209/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌　2015）</t>
+          <t>**農林水産省** &lt;br&gt; [Prevalence and Characterization of Foodborne Pathogens in Dairy Cattle in the Eastern Part of Japan](https://www.jstage.jst.go.jp/article/jvms/75/4/75_12-0327/_pdf/-char/ja) &lt;br&gt; （Journal of Veterinary Medical Science 2013）</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [Prevalence and Characterization of Foodborne Pathogens in Dairy Cattle in the Eastern Part of Japan](https://www.jstage.jst.go.jp/article/jvms/75/4/75_12-0327/_pdf/-char/ja) &lt;br&gt; （Journal of Veterinary Medical Science 2013）</t>
+          <t>**農林水産省** &lt;br&gt; [出荷前後のブロイラー鶏群のカンピロバクター保有状況と、製造された鶏肉のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku_cam_14.html)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [出荷前後のブロイラー鶏群のカンピロバクター保有状況と、製造された鶏肉のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku_cam_14.html)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のカンピロバクター濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のカンピロバクター濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のサルモネラ濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のサルモネラ濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [採卵鶏農場のサルモネラ保有状況・鶏卵のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt;  - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiran/keiran_sal_03.html#22113)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [採卵鶏農場のサルモネラ保有状況・鶏卵のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt;  - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiran/keiran_sal_03.html#22113)</t>
+          <t>**福岡県保健環境研究所** &lt;br&gt; [平成22年度食品の食中毒菌汚染実態調査](https://www.fihes.pref.fukuoka.jp/nenpoh/np38/pdf/np38report1.pdf) &lt;br&gt; （福岡県保健環境研究所年報第38号, 66-67, 2011）</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1065,12 +1065,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>**福岡県保健環境研究所** &lt;br&gt; [平成22年度食品の食中毒菌汚染実態調査](https://www.fihes.pref.fukuoka.jp/nenpoh/np38/pdf/np38report1.pdf) &lt;br&gt; （福岡県保健環境研究所年報第38号, 66-67, 2011）</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt; - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku_cam_06.html)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のカンピロバクター汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt; - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku_cam_06.html)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された鶏肉のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf)</t>
+          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[_Campylobacter_ contamination in retail poultry meats and by-products in Japan: A literature survey](https://www.sciencedirect.com/science/article/pii/S0956713508002247) &lt;br&gt; (Food Control, Volume 20, Issue 6, June 2009, Pages 531-537)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
@@ -1121,24 +1121,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[_Campylobacter_ contamination in retail poultry meats and by-products in Japan: A literature survey](https://www.sciencedirect.com/science/article/pii/S0956713508002247) &lt;br&gt; (Food Control, Volume 20, Issue 6, June 2009, Pages 531-537)</t>
+          <t>**天使大学** &lt;br&gt; [Prevalence and Characteristics of _Listeria monocytogenes_ in Bovine Colostrum in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23052547)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2008-2018</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>**天使大学** &lt;br&gt; [Prevalence and Characteristics of _Listeria monocytogenes_ in Bovine Colostrum in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23052547)</t>
+          <t>**厚生労働省** &lt;br&gt; [食品中の食中毒菌汚染実態調査](https://www.mhlw.go.jp/stf/seisakunitsuite/bunya/kenkou_iryou/shokuhin/syokuchu/01.html)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1150,12 +1150,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2008-2018</t>
+          <t>2007-2008</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>**厚生労働省** &lt;br&gt; [食品中の食中毒菌汚染実態調査](https://www.mhlw.go.jp/stf/seisakunitsuite/bunya/kenkou_iryou/shokuhin/syokuchu/01.html)</t>
+          <t>**農林水産省** &lt;br&gt; [生食用野菜における腸管出血性大腸菌及びサルモネラの実態調査](https://www.maff.go.jp/j/syouan/nouan/kome/k_yasai/pdf/press.pdf)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1167,12 +1167,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2007-2008</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [生食用野菜における腸管出血性大腸菌及びサルモネラの実態調査](https://www.maff.go.jp/j/syouan/nouan/kome/k_yasai/pdf/press.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [市販鶏卵のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt; - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiran/keiran_sal_04.html#22121)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1184,12 +1184,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [市販鶏卵のサルモネラ汚染状況調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/attach/pdf/chikusan-1.pdf) &lt;br&gt; - [関連リンク](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiran/keiran_sal_04.html#22121)</t>
+          <t>**帯広畜産大学** &lt;br&gt; [Isolation and characterization of _Listeria monocytogenes_ from commercial asazuke (Japanese light pickles)](https://www.sciencedirect.com/science/article/pii/S0168160510001686?via%3Dihub) &lt;br&gt; (International Journal of Food Microbiology, Volume 139, Issue 3, 15 May 2010, Pages 134-139)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>**帯広畜産大学** &lt;br&gt; [Isolation and characterization of _Listeria monocytogenes_ from commercial asazuke (Japanese light pickles)](https://www.sciencedirect.com/science/article/pii/S0168160510001686?via%3Dihub) &lt;br&gt; (International Journal of Food Microbiology, Volume 139, Issue 3, 15 May 2010, Pages 134-139)</t>
+          <t>**日本獣医生命科学大学** &lt;br&gt; [Isolation of _Listeria monocytogenes_ from the Skin of Slaughtered Beef Cattle](https://agriknowledge.affrc.go.jp/RN/2030760055.pdf) &lt;br&gt; (The Journal of Veterinary Medical Science, 69(10): 1077-1079，2007)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1218,12 +1218,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2006-2008</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>**日本獣医生命科学大学** &lt;br&gt; [Isolation of _Listeria monocytogenes_ from the Skin of Slaughtered Beef Cattle](https://agriknowledge.affrc.go.jp/RN/2030760055.pdf) &lt;br&gt; (The Journal of Veterinary Medical Science, 69(10): 1077-1079，2007)</t>
+          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[The Occurrence of Listeria monocytogenes in Imported Ready-to-Eat Foods in Japan](https://www.jstage.jst.go.jp/article/jvms/74/3/74_11-0262/_pdf/-char/en)（[訂正](https://www.jstage.jst.go.jp/article/jvms/75/2/75_11-0262e/_article/-char/ja)） &lt;br&gt; (Journal of Veterinary Medical Science, 2012, Volume 74, Issue 3, Pages 373-375)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1235,12 +1235,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2006-2008</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>**国立医薬品食品衛生研究所**&lt;br&gt;[The Occurrence of Listeria monocytogenes in Imported Ready-to-Eat Foods in Japan](https://www.jstage.jst.go.jp/article/jvms/74/3/74_11-0262/_pdf/-char/en)（[訂正](https://www.jstage.jst.go.jp/article/jvms/75/2/75_11-0262e/_article/-char/ja)） &lt;br&gt; (Journal of Veterinary Medical Science, 2012, Volume 74, Issue 3, Pages 373-375)</t>
+          <t>**宮城県保健環境センター** &lt;br&gt; [_Listeria monocytogenes_ による ready-to-eat 食品の汚染実態](https://www.pref.miyagi.jp/documents/1979/210526.pdf) &lt;br&gt;（宮城県保健環境センター年報　第 25 号　2007）</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1252,12 +1252,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>**宮城県保健環境センター** &lt;br&gt; [_Listeria monocytogenes_ による ready-to-eat 食品の汚染実態](https://www.pref.miyagi.jp/documents/1979/210526.pdf) &lt;br&gt;（宮城県保健環境センター年報　第 25 号　2007）</t>
+          <t>**神戸大学** &lt;br&gt; [市販ミンチ肉における黄色ブドウ球菌汚染調査と分離株の性状](https://www.jstage.jst.go.jp/article/jsfm1994/23/4/23_4_217/_pdf/-char/ja) &lt;br&gt; （日本食品微生物学会雑誌, 23 (4), 217-222, 2006）</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>**神戸大学** &lt;br&gt; [市販ミンチ肉における黄色ブドウ球菌汚染調査と分離株の性状](https://www.jstage.jst.go.jp/article/jsfm1994/23/4/23_4_217/_pdf/-char/ja) &lt;br&gt; （日本食品微生物学会雑誌, 23 (4), 217-222, 2006）</t>
+          <t>**京都市衛生公害研究所** &lt;br&gt; [市販ナチュラルチーズからのリステリア菌の検出](https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000118/118277/o-5.pdf)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1286,12 +1286,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2004-2007</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>**京都市衛生公害研究所** &lt;br&gt; [市販ナチュラルチーズからのリステリア菌の検出](https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000118/118277/o-5.pdf)</t>
+          <t>**日本獣医生命科学大学** &lt;br&gt; [Sequence-Based Characterization of _Listeria monocytogenes_ Strains Isolated from Domestic Retail Meat in the Tokyo Metropolitan Area of Japan](https://www.jstage.jst.go.jp/article/yoken/71/5/71_JJID.2017.582/_pdf/-char/en)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1303,12 +1303,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2004-2007</t>
+          <t>2004-2006</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>**日本獣医生命科学大学** &lt;br&gt; [Sequence-Based Characterization of _Listeria monocytogenes_ Strains Isolated from Domestic Retail Meat in the Tokyo Metropolitan Area of Japan](https://www.jstage.jst.go.jp/article/yoken/71/5/71_JJID.2017.582/_pdf/-char/en)</t>
+          <t>**静岡県環境衛生科学研究所** &lt;br&gt; [Antibiotic Resistance in Bacterial Pathogens from Retail Raw Meats and Food-Producing Animals in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23039777?via%3Dihub) &lt;br&gt; (Journal of Food Protection, Volume 75, Issue 10, 1 October 2012, Pages 1774-1782)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1320,46 +1320,46 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2004-2006</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>**静岡県環境衛生科学研究所** &lt;br&gt; [Antibiotic Resistance in Bacterial Pathogens from Retail Raw Meats and Food-Producing Animals in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23039777?via%3Dihub) &lt;br&gt; (Journal of Food Protection, Volume 75, Issue 10, 1 October 2012, Pages 1774-1782)</t>
+          <t>**広島市衛生研究所** &lt;br&gt; [鶏肉のカンピロバクター培養検査法の検討 -鶏肉の検査方法別検出感度および検出率の比較]() &lt;br&gt;（広島市衛研年報 24, 49-54, 2005）</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2002-2004</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>**広島市衛生研究所** &lt;br&gt; [鶏肉のカンピロバクター培養検査法の検討 -鶏肉の検査方法別検出感度および検出率の比較]() &lt;br&gt;（広島市衛研年報 24, 49-54, 2005）</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [漬け物製造施設における _Listeria monocytogenes_ の汚染実態について](https://www.pref.saitama.lg.jp/documents/231581/no39h17-2_p94~191.pdf) &lt;br&gt;（埼玉県衛生研究所年報 2005 Vol.39 p151-153）</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2002-2004</t>
+          <t>2002-2003</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [漬け物製造施設における _Listeria monocytogenes_ の汚染実態について](https://www.pref.saitama.lg.jp/documents/231581/no39h17-2_p94~191.pdf) &lt;br&gt;（埼玉県衛生研究所年報 2005 Vol.39 p151-153）</t>
+          <t>**東京海洋大学** &lt;br&gt; [Incidence of _Listeria monocytogenes_ in Raw Seafood Products in Japanese Retail Stores](https://www.sciencedirect.com/science/article/pii/S0362028X22009371/pdf?md5=a3083f06f33e1de915e2df49fbcf05af&amp;pid=1-s2.0-S0362028X22009371-main.pdf)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1371,12 +1371,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2002-2003</t>
+          <t>2001-2002</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>**東京海洋大学** &lt;br&gt; [Incidence of _Listeria monocytogenes_ in Raw Seafood Products in Japanese Retail Stores](https://www.sciencedirect.com/science/article/pii/S0362028X22009371/pdf?md5=a3083f06f33e1de915e2df49fbcf05af&amp;pid=1-s2.0-S0362028X22009371-main.pdf)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立国会図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1388,12 +1388,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2001-2002</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立国会図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
+          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
+          <t>**神戸市環境保健研究所** &lt;br&gt; [市販の輸入生野菜および果物における病原菌汚染の実態調査](https://www.jstage.jst.go.jp/article/jsfm1994/19/2/19_2_71/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌, 19(2), 71-75, 2002）</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1422,12 +1422,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2000-2015</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>**神戸市環境保健研究所** &lt;br&gt; [市販の輸入生野菜および果物における病原菌汚染の実態調査](https://www.jstage.jst.go.jp/article/jsfm1994/19/2/19_2_71/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌, 19(2), 71-75, 2002）</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [食品からの _Listeria monocytogenes_ 検出法および定量法の比較](https://www.jstage.jst.go.jp/article/jsfm/33/3/33_155/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌、2016）</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1439,12 +1439,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2000-2015</t>
+          <t>2000-2012</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [食品からの _Listeria monocytogenes_ 検出法および定量法の比較](https://www.jstage.jst.go.jp/article/jsfm/33/3/33_155/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌、2016）</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [Prevalence and contamination levels of _Listeria monocytogenes_ in ready-to-eat foods in Tokyo, Japan](https://www.jstage.jst.go.jp/article/jvms/78/7/78_15-0708/_pdf/-char/ja) &lt;br&gt; (Jarnal of Veterinary Medical Science (JVMS), 2016)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1456,12 +1456,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2000-2012</t>
+          <t>2000-2002</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [Prevalence and contamination levels of _Listeria monocytogenes_ in ready-to-eat foods in Tokyo, Japan](https://www.jstage.jst.go.jp/article/jvms/78/7/78_15-0708/_pdf/-char/ja) &lt;br&gt; (Jarnal of Veterinary Medical Science (JVMS), 2016)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf) &lt;br&gt;（東京健康安全研究センター年報, 55, 2004）</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1473,29 +1473,29 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2000-2002</t>
+          <t>1999-2001</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf) &lt;br&gt;（東京健康安全研究センター年報, 55, 2004）</t>
+          <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93） &lt;br&gt; web上に公開されていない</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1999-2001</t>
+          <t>不明</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93） &lt;br&gt; web上に公開されていない</t>
+          <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）  &lt;br&gt; web上に公開されていない</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1512,27 +1512,10 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）  &lt;br&gt; web上に公開されていない</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; インターネット販売食品の衛生学的実態調査 &lt;br&gt;（食品衛生研究, 65-70, 56(1), 2006）&lt;br&gt; 国立国会図書館に所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R100000002-I000000011637-i5462925)）</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
-        <is>
-          <t>未登録</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>不明</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; インターネット販売食品の衛生学的実態調査 &lt;br&gt;（食品衛生研究, 65-70, 56(1), 2006）&lt;br&gt; 国立国会図書館に所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R100000002-I000000011637-i5462925)）</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
         <is>
           <t>済</t>
         </is>

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1286,12 +1286,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2004-2007</t>
+          <t>2004-2011</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>**日本獣医生命科学大学** &lt;br&gt; [Sequence-Based Characterization of _Listeria monocytogenes_ Strains Isolated from Domestic Retail Meat in the Tokyo Metropolitan Area of Japan](https://www.jstage.jst.go.jp/article/yoken/71/5/71_JJID.2017.582/_pdf/-char/en)</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [市販鶏肉のカンピロバクター及びサルモネラ汚染状況と分離株の薬剤感受性](https://jvma-vet.jp/mag/06706/d2.pdf) &lt;br&gt;（日獣会誌, 67, 442~448, 2014）</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1303,12 +1303,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2004-2006</t>
+          <t>2004-2007</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>**静岡県環境衛生科学研究所** &lt;br&gt; [Antibiotic Resistance in Bacterial Pathogens from Retail Raw Meats and Food-Producing Animals in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23039777?via%3Dihub) &lt;br&gt; (Journal of Food Protection, Volume 75, Issue 10, 1 October 2012, Pages 1774-1782)</t>
+          <t>**日本獣医生命科学大学** &lt;br&gt; [Sequence-Based Characterization of _Listeria monocytogenes_ Strains Isolated from Domestic Retail Meat in the Tokyo Metropolitan Area of Japan](https://www.jstage.jst.go.jp/article/yoken/71/5/71_JJID.2017.582/_pdf/-char/en)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1320,46 +1320,46 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2004-2006</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>**広島市衛生研究所** &lt;br&gt; [鶏肉のカンピロバクター培養検査法の検討 -鶏肉の検査方法別検出感度および検出率の比較]() &lt;br&gt;（広島市衛研年報 24, 49-54, 2005）</t>
+          <t>**静岡県環境衛生科学研究所** &lt;br&gt; [Antibiotic Resistance in Bacterial Pathogens from Retail Raw Meats and Food-Producing Animals in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23039777?via%3Dihub) &lt;br&gt; (Journal of Food Protection, Volume 75, Issue 10, 1 October 2012, Pages 1774-1782)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2002-2004</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [漬け物製造施設における _Listeria monocytogenes_ の汚染実態について](https://www.pref.saitama.lg.jp/documents/231581/no39h17-2_p94~191.pdf) &lt;br&gt;（埼玉県衛生研究所年報 2005 Vol.39 p151-153）</t>
+          <t>**広島市衛生研究所** &lt;br&gt; [鶏肉のカンピロバクター培養検査法の検討 -鶏肉の検査方法別検出感度および検出率の比較]() &lt;br&gt;（広島市衛研年報 24, 49-54, 2005）</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2002-2003</t>
+          <t>2002-2004</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>**東京海洋大学** &lt;br&gt; [Incidence of _Listeria monocytogenes_ in Raw Seafood Products in Japanese Retail Stores](https://www.sciencedirect.com/science/article/pii/S0362028X22009371/pdf?md5=a3083f06f33e1de915e2df49fbcf05af&amp;pid=1-s2.0-S0362028X22009371-main.pdf)</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [漬け物製造施設における _Listeria monocytogenes_ の汚染実態について](https://www.pref.saitama.lg.jp/documents/231581/no39h17-2_p94~191.pdf) &lt;br&gt;（埼玉県衛生研究所年報 2005 Vol.39 p151-153）</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1371,12 +1371,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2001-2002</t>
+          <t>2002-2003</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立国会図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
+          <t>**東京海洋大学** &lt;br&gt; [Incidence of _Listeria monocytogenes_ in Raw Seafood Products in Japanese Retail Stores](https://www.sciencedirect.com/science/article/pii/S0362028X22009371/pdf?md5=a3083f06f33e1de915e2df49fbcf05af&amp;pid=1-s2.0-S0362028X22009371-main.pdf)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1388,12 +1388,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2001-2002</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立国会図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>**神戸市環境保健研究所** &lt;br&gt; [市販の輸入生野菜および果物における病原菌汚染の実態調査](https://www.jstage.jst.go.jp/article/jsfm1994/19/2/19_2_71/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌, 19(2), 71-75, 2002）</t>
+          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1422,12 +1422,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2000-2015</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [食品からの _Listeria monocytogenes_ 検出法および定量法の比較](https://www.jstage.jst.go.jp/article/jsfm/33/3/33_155/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌、2016）</t>
+          <t>**神戸市環境保健研究所** &lt;br&gt; [市販の輸入生野菜および果物における病原菌汚染の実態調査](https://www.jstage.jst.go.jp/article/jsfm1994/19/2/19_2_71/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌, 19(2), 71-75, 2002）</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1439,12 +1439,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2000-2012</t>
+          <t>2000-2015</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [Prevalence and contamination levels of _Listeria monocytogenes_ in ready-to-eat foods in Tokyo, Japan](https://www.jstage.jst.go.jp/article/jvms/78/7/78_15-0708/_pdf/-char/ja) &lt;br&gt; (Jarnal of Veterinary Medical Science (JVMS), 2016)</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [食品からの _Listeria monocytogenes_ 検出法および定量法の比較](https://www.jstage.jst.go.jp/article/jsfm/33/3/33_155/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌、2016）</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1456,12 +1456,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2000-2002</t>
+          <t>2000-2012</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf) &lt;br&gt;（東京健康安全研究センター年報, 55, 2004）</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [Prevalence and contamination levels of _Listeria monocytogenes_ in ready-to-eat foods in Tokyo, Japan](https://www.jstage.jst.go.jp/article/jvms/78/7/78_15-0708/_pdf/-char/ja) &lt;br&gt; (Jarnal of Veterinary Medical Science (JVMS), 2016)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1473,29 +1473,29 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1999-2001</t>
+          <t>2000-2002</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93） &lt;br&gt; web上に公開されていない</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf) &lt;br&gt;（東京健康安全研究センター年報, 55, 2004）</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>不明</t>
+          <t>1999-2001</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）  &lt;br&gt; web上に公開されていない</t>
+          <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93） &lt;br&gt; web上に公開されていない</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1512,10 +1512,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）  &lt;br&gt; web上に公開されていない</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>未登録</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>不明</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
           <t>**東京都健康安全研究センター** &lt;br&gt; インターネット販売食品の衛生学的実態調査 &lt;br&gt;（食品衛生研究, 65-70, 56(1), 2006）&lt;br&gt; 国立国会図書館に所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R100000002-I000000011637-i5462925)）</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>済</t>
         </is>

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>**広島市衛生研究所** &lt;br&gt; [鶏肉のカンピロバクター培養検査法の検討 -鶏肉の検査方法別検出感度および検出率の比較]() &lt;br&gt;（広島市衛研年報 24, 49-54, 2005）</t>
+          <t>**広島市衛生研究所** &lt;br&gt; [鶏肉のカンピロバクター培養検査法の検討 -鶏肉の検査方法別検出感度および検出率の比較](https://www.city.hiroshima.lg.jp/_res/projects/default_project/_page_/001/023/131/57062.pdf) &lt;br&gt;（広島市衛研年報 24, 49-54, 2005）</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [市販鶏肉のカンピロバクター及びサルモネラ汚染状況と分離株の薬剤感受性](https://jvma-vet.jp/mag/06706/d2.pdf) &lt;br&gt;（日獣会誌, 67, 442~448, 2014）</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [市販鶏肉のカンピロバクター及びサルモネラ汚染状況と分離株の薬剤感受性](https://jvma-vet.jp/mag/06706/d2.pdf) &lt;br&gt;（日本獣医師会雑誌, 67, 442~448, 2014）</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>総説のため、元文献登録後削除</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>**神戸大学** &lt;br&gt; [市販ミンチ肉における黄色ブドウ球菌汚染調査と分離株の性状](https://www.jstage.jst.go.jp/article/jsfm1994/23/4/23_4_217/_pdf/-char/ja) &lt;br&gt; （日本食品微生物学会雑誌, 23 (4), 217-222, 2006）</t>
+          <t>**神戸大学** &lt;br&gt; [市販ミンチ肉における黄色ブドウ球菌汚染調査と分離株の性状](https://www.jstage.jst.go.jp/article/jsfm1994/23/4/23_4_217/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌, 23 (4), 217-222, 2006）</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1274,41 +1274,41 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>**京都市衛生公害研究所** &lt;br&gt; [市販ナチュラルチーズからのリステリア菌の検出](https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000118/118277/o-5.pdf)</t>
+          <t>**麻布大学** &lt;br&gt; [LAMP法および培養法による市販鶏肉からのカンピロバクターの検出比較](https://www.jstage.jst.go.jp/article/jsfm1994/23/4/23_4_237/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学雑誌, 23(4), 237-241, 2006）</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2004-2011</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [市販鶏肉のカンピロバクター及びサルモネラ汚染状況と分離株の薬剤感受性](https://jvma-vet.jp/mag/06706/d2.pdf) &lt;br&gt;（日本獣医師会雑誌, 67, 442~448, 2014）</t>
+          <t>**福岡県保健環境研究所** &lt;br&gt; [平成17年度収去食品中の食中毒細菌検査](https://www.fihes.pref.fukuoka.jp/nenpoh/np33/pdf/np33Material3.pdf) &lt;br&gt;（福岡県保健環境研究所年報, 第33号, 89-91, 2006）</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2004-2007</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>**日本獣医生命科学大学** &lt;br&gt; [Sequence-Based Characterization of _Listeria monocytogenes_ Strains Isolated from Domestic Retail Meat in the Tokyo Metropolitan Area of Japan](https://www.jstage.jst.go.jp/article/yoken/71/5/71_JJID.2017.582/_pdf/-char/en)</t>
+          <t>**京都市衛生公害研究所** &lt;br&gt; [市販ナチュラルチーズからのリステリア菌の検出](https://www.city.kyoto.lg.jp/hokenfukushi/cmsfiles/contents/0000118/118277/o-5.pdf)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1320,12 +1320,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2004-2006</t>
+          <t>2004-2011</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>**静岡県環境衛生科学研究所** &lt;br&gt; [Antibiotic Resistance in Bacterial Pathogens from Retail Raw Meats and Food-Producing Animals in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23039777?via%3Dihub) &lt;br&gt; (Journal of Food Protection, Volume 75, Issue 10, 1 October 2012, Pages 1774-1782)</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [市販鶏肉のカンピロバクター及びサルモネラ汚染状況と分離株の薬剤感受性](https://jvma-vet.jp/mag/06706/d2.pdf) &lt;br&gt;（日本獣医師会雑誌, 67, 442~448, 2014）</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1337,29 +1337,29 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2004-2007</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>**広島市衛生研究所** &lt;br&gt; [鶏肉のカンピロバクター培養検査法の検討 -鶏肉の検査方法別検出感度および検出率の比較](https://www.city.hiroshima.lg.jp/_res/projects/default_project/_page_/001/023/131/57062.pdf) &lt;br&gt;（広島市衛研年報 24, 49-54, 2005）</t>
+          <t>**日本獣医生命科学大学** &lt;br&gt; [Sequence-Based Characterization of _Listeria monocytogenes_ Strains Isolated from Domestic Retail Meat in the Tokyo Metropolitan Area of Japan](https://www.jstage.jst.go.jp/article/yoken/71/5/71_JJID.2017.582/_pdf/-char/en)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2002-2004</t>
+          <t>2004-2006</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [漬け物製造施設における _Listeria monocytogenes_ の汚染実態について](https://www.pref.saitama.lg.jp/documents/231581/no39h17-2_p94~191.pdf) &lt;br&gt;（埼玉県衛生研究所年報 2005 Vol.39 p151-153）</t>
+          <t>**静岡県環境衛生科学研究所** &lt;br&gt; [Antibiotic Resistance in Bacterial Pathogens from Retail Raw Meats and Food-Producing Animals in Japan](https://www.sciencedirect.com/science/article/pii/S0362028X23039777?via%3Dihub) &lt;br&gt; (Journal of Food Protection, Volume 75, Issue 10, 1 October 2012, Pages 1774-1782)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1371,97 +1371,97 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2002-2003</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>**東京海洋大学** &lt;br&gt; [Incidence of _Listeria monocytogenes_ in Raw Seafood Products in Japanese Retail Stores](https://www.sciencedirect.com/science/article/pii/S0362028X22009371/pdf?md5=a3083f06f33e1de915e2df49fbcf05af&amp;pid=1-s2.0-S0362028X22009371-main.pdf)</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [試験管培養法による鶏肉からのカンピロバクター分離法の検討](https://www.jstage.jst.go.jp/article/jsfm1994/22/3/22_3_116/_pdf/-char/en) &lt;br&gt;（日本食品微生物学会雑誌, 22(3), 116-119, 2005）</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2001-2002</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立国会図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [冷凍保存鶏肉における _Campylobacter jejuni_ の生存性とパルスフィールド・ゲル電気泳動法による分離菌株の遺伝子解析](https://www.jstage.jst.go.jp/article/jsfm1994/22/2/22_2_59/_pdf/-char/en) &lt;br&gt;（日本食品微生物学会雑誌, 22(2), 59-65, 2005）</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
+          <t>**広島市衛生研究所** &lt;br&gt; [鶏肉のカンピロバクター培養検査法の検討 -鶏肉の検査方法別検出感度および検出率の比較](https://www.city.hiroshima.lg.jp/_res/projects/default_project/_page_/001/023/131/57062.pdf) &lt;br&gt;（広島市衛研年報 24, 49-54, 2005）</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>**神戸市環境保健研究所** &lt;br&gt; [市販の輸入生野菜および果物における病原菌汚染の実態調査](https://www.jstage.jst.go.jp/article/jsfm1994/19/2/19_2_71/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌, 19(2), 71-75, 2002）</t>
+          <t>**福岡県保健環境研究所** &lt;br&gt; [平成16年度収去食品中の食中毒細菌検査](https://www.fihes.pref.fukuoka.jp/nenpoh/np32/pdf/np32Material2.pdf) &lt;br&gt;（福岡県保健環境研究所年報, 第32号, 83-85, 2005）</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2000-2015</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [食品からの _Listeria monocytogenes_ 検出法および定量法の比較](https://www.jstage.jst.go.jp/article/jsfm/33/3/33_155/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌、2016）</t>
+          <t>**福岡県保健環境研究所** &lt;br&gt; [平成15年度収去食品中の食中毒細菌検査](https://www.fihes.pref.fukuoka.jp/nenpoh/np31/np31_d03.pdf) &lt;br&gt;（福岡県保健環境研究所年報, 第31号, 81-83, 2004）</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>済</t>
+          <t>未登録</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2000-2012</t>
+          <t>2002-2004</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [Prevalence and contamination levels of _Listeria monocytogenes_ in ready-to-eat foods in Tokyo, Japan](https://www.jstage.jst.go.jp/article/jvms/78/7/78_15-0708/_pdf/-char/ja) &lt;br&gt; (Jarnal of Veterinary Medical Science (JVMS), 2016)</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [漬け物製造施設における _Listeria monocytogenes_ の汚染実態について](https://www.pref.saitama.lg.jp/documents/231581/no39h17-2_p94~191.pdf) &lt;br&gt;（埼玉県衛生研究所年報 2005 Vol.39 p151-153）</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1473,12 +1473,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2000-2002</t>
+          <t>2002-2003</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf) &lt;br&gt;（東京健康安全研究センター年報, 55, 2004）</t>
+          <t>**東京海洋大学** &lt;br&gt; [Incidence of _Listeria monocytogenes_ in Raw Seafood Products in Japanese Retail Stores](https://www.sciencedirect.com/science/article/pii/S0362028X22009371/pdf?md5=a3083f06f33e1de915e2df49fbcf05af&amp;pid=1-s2.0-S0362028X22009371-main.pdf)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1490,12 +1490,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1999-2001</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93） &lt;br&gt; web上に公開されていない</t>
+          <t>**福岡県保健環境研究所** &lt;br&gt; [食品衛生法に基づく収去検査](https://www.fihes.pref.fukuoka.jp/nenpoh/np30/np3029.pdf) &lt;br&gt;（福岡県保健環境研究所年報, 第30号, 183-185, 2003）</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1507,32 +1507,236 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>不明</t>
+          <t>2001-2002</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）  &lt;br&gt; web上に公開されていない</t>
+          <t>**東京都健康安全研究センター** &lt;br&gt; 全国食品衛生監視員研修会優秀課題 &lt;br&gt; 加工食品のリステリア菌汚染に関する衛生学的実態調査 &lt;br&gt;（食品衛生研究 54 (6), 2004, p. 53~57）&lt;br&gt; 国立国会図書館などに所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R000000004-I6983248)）</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [市販鶏肉の細菌汚染調査](https://www.pref.saitama.lg.jp/documents/231581/no36h14r.pdf) &lt;br&gt;（埼玉県衛生研究所報, 第36号, 2002, pp. 80-82）</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>未登録</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>**帯広畜産大学** &lt;br&gt; [An outbreak of food-borne listeriosis due to cheese in Japan, during 2001](https://www.sciencedirect.com/science/article/pii/S0168160505002497)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>済</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>**神戸市環境保健研究所** &lt;br&gt; [市販の輸入生野菜および果物における病原菌汚染の実態調査](https://www.jstage.jst.go.jp/article/jsfm1994/19/2/19_2_71/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌, 19(2), 71-75, 2002）</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>済</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2000-2015</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [食品からの _Listeria monocytogenes_ 検出法および定量法の比較](https://www.jstage.jst.go.jp/article/jsfm/33/3/33_155/_pdf/-char/ja) &lt;br&gt;（日本食品微生物学会雑誌、2016）</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>済</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2000-2012</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [Prevalence and contamination levels of _Listeria monocytogenes_ in ready-to-eat foods in Tokyo, Japan](https://www.jstage.jst.go.jp/article/jvms/78/7/78_15-0708/_pdf/-char/ja) &lt;br&gt; (Jarnal of Veterinary Medical Science (JVMS), 2016)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>済</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2000-2002</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>**東京都健康安全研究センター** &lt;br&gt; [市販生鮮青果物の食品細菌学的調査](https://www.tmiph.metro.tokyo.lg.jp/files/archive/issue/kenkyunenpo/nenpou55/55-21.pdf) &lt;br&gt;（東京健康安全研究センター年報, 55, 2004）</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>済</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2000-2002</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>**静岡県環境衛生科学研究所** &lt;br&gt; [カンピロバクターの生態および検出方法に関する研究](https://kaneiken.jp/wordpress/wp-content/uploads/2023/11/nenpo45.pdf) &lt;br&gt;（静岡県環境衛生科学研究所報告, No.45, 5-11, 2002）</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>未登録</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2000-2001</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>**群馬県衛生環境研究所** &lt;br&gt; [市販鶏ひき肉における _Arcobacter_, _Campylobacter_ および _Salmonella_ の汚染状況](https://www.jstage.jst.go.jp/article/jvma1951/56/6/56_6_401/_pdf/-char/en) &lt;br&gt;（日本獣医師会雑誌, 56, 401~405, 2003）</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>未登録</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [市販鶏肉におけるカンピロバクターの定量検査と分離菌株の血清型](https://www.jstage.jst.go.jp/article/jvma1951/57/9/57_9_595/_pdf/-char/ja) &lt;br&gt;（日本獣医師会雑誌, 57巻, 595~598, 2004）</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>未登録</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [市販鶏肉のカンピロバクターの定量検査とRAPD法による遺伝子型解析](https://www.pref.saitama.lg.jp/documents/231581/no35h13r.pdf) &lt;br&gt;（埼玉県衛生研究所報, 第35号, 2001）</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>未登録</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1999-2001</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93） &lt;br&gt; web上に公開されていない</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>未登録</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
           <t>不明</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）  &lt;br&gt; web上に公開されていない</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>未登録</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>不明</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>**東京都健康安全研究センター** &lt;br&gt; インターネット販売食品の衛生学的実態調査 &lt;br&gt;（食品衛生研究, 65-70, 56(1), 2006）&lt;br&gt; 国立国会図書館に所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R100000002-I000000011637-i5462925)）</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>済</t>
         </is>

--- a/tables/table_contamination_rate.xlsx
+++ b/tables/table_contamination_rate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>**静岡県環境衛生科学研究所** &lt;br&gt; [カンピロバクターの生態および検出方法に関する研究](https://kaneiken.jp/wordpress/wp-content/uploads/2023/11/nenpo45.pdf) &lt;br&gt;（静岡県環境衛生科学研究所報告, No.45, 5-11, 2002）</t>
+          <t>**秋田県衛生科学研究所** &lt;br&gt; [薬剤耐性菌の浸淫実態解明に関する調査研究（平成12年度〜平成14年度）](https://www.pref.akita.lg.jp/uploads/public/archive_0000088274_00/ek2002_47_5_03.pdf) &lt;br&gt;（秋田県衛生科学研究所報, 47, 24~29, 2003）</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1643,12 +1643,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2000-2001</t>
+          <t>2000-2002</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>**群馬県衛生環境研究所** &lt;br&gt; [市販鶏ひき肉における _Arcobacter_, _Campylobacter_ および _Salmonella_ の汚染状況](https://www.jstage.jst.go.jp/article/jvma1951/56/6/56_6_401/_pdf/-char/en) &lt;br&gt;（日本獣医師会雑誌, 56, 401~405, 2003）</t>
+          <t>**秋田県衛生科学研究所** &lt;br&gt; [_Campylobacter jejuni_ isolated from retail poultry meat, bovine feces and bile, and human diarrheal samples in Japan: Comparison of serotypes and genotypes](https://www.sciencedirect.com/science/article/pii/S0928824405001252/pdfft?md5=742f3c6d98078caf0f80135c4d8bd5ce&amp;pid=1-s2.0-S0928824405001252-main.pdf) &lt;br&gt; (FEMS Immunology and Medical Microbiology, Volume 45, Issue 2, 2005, Pages 311-319)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1660,12 +1660,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2000-2002</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [市販鶏肉におけるカンピロバクターの定量検査と分離菌株の血清型](https://www.jstage.jst.go.jp/article/jvma1951/57/9/57_9_595/_pdf/-char/ja) &lt;br&gt;（日本獣医師会雑誌, 57巻, 595~598, 2004）</t>
+          <t>**静岡県環境衛生科学研究所** &lt;br&gt; [カンピロバクターの生態および検出方法に関する研究](https://kaneiken.jp/wordpress/wp-content/uploads/2023/11/nenpo45.pdf) &lt;br&gt;（静岡県環境衛生科学研究所報告, No.45, 5-11, 2002）</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1677,12 +1677,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2000-2001</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [市販鶏肉のカンピロバクターの定量検査とRAPD法による遺伝子型解析](https://www.pref.saitama.lg.jp/documents/231581/no35h13r.pdf) &lt;br&gt;（埼玉県衛生研究所報, 第35号, 2001）</t>
+          <t>**群馬県衛生環境研究所** &lt;br&gt; [市販鶏ひき肉における _Arcobacter_, _Campylobacter_ および _Salmonella_ の汚染状況](https://www.jstage.jst.go.jp/article/jvma1951/56/6/56_6_401/_pdf/-char/en) &lt;br&gt;（日本獣医師会雑誌, 56, 401~405, 2003）</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1694,12 +1694,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1999-2001</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93） &lt;br&gt; web上に公開されていない</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [市販鶏肉におけるカンピロバクターの定量検査と分離菌株の血清型](https://www.jstage.jst.go.jp/article/jvma1951/57/9/57_9_595/_pdf/-char/ja) &lt;br&gt;（日本獣医師会雑誌, 57巻, 595~598, 2004）</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1711,12 +1711,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>不明</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）  &lt;br&gt; web上に公開されていない</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [市販鶏肉のカンピロバクターの定量検査とRAPD法による遺伝子型解析](https://www.pref.saitama.lg.jp/documents/231581/no35h13r.pdf) &lt;br&gt;（埼玉県衛生研究所報, 第35号, 2001）</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1728,15 +1728,49 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>1999-2001</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>**横浜市衛生研究所** &lt;br&gt; 無加熱摂取食品から検出された _Listeria monocytogenes_ &lt;br&gt;（横浜市衛生研究所年報 2002 no.41 p91-93） &lt;br&gt; web上に公開されていない</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>未登録</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
           <t>不明</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>**横浜市衛生研究所** &lt;br&gt; 輸入非加熱食肉製品から検出された _Listeria monocytogenes_  &lt;br&gt;（横浜市衛生研究所年報 2008,vol.47,p.105-107）  &lt;br&gt; web上に公開されていない</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>未登録</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>不明</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>**東京都健康安全研究センター** &lt;br&gt; インターネット販売食品の衛生学的実態調査 &lt;br&gt;（食品衛生研究, 65-70, 56(1), 2006）&lt;br&gt; 国立国会図書館に所蔵（[参考](https://ndlsearch.ndl.go.jp/books/R100000002-I000000011637-i5462925)）</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>済</t>
         </is>
